--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -587,6 +595,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -669,6 +679,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -710,6 +721,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -751,6 +763,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,6 +805,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -833,6 +847,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,6 +889,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -915,6 +931,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,6 +973,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -997,6 +1015,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,6 +1057,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1079,6 +1099,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,6 +1141,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1161,6 +1183,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1202,6 +1225,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1243,6 +1267,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,6 +1309,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1325,6 +1351,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1366,6 +1393,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1407,6 +1435,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1448,6 +1477,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1489,6 +1519,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1530,6 +1561,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1571,6 +1603,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1612,6 +1645,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1653,6 +1687,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1694,6 +1729,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1735,6 +1771,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1776,6 +1813,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1817,6 +1855,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1858,6 +1897,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1899,6 +1939,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1940,6 +1981,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1981,6 +2023,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2022,6 +2065,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2049,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
@@ -2057,11 +2101,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>1.048540587219344</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.01325</v>
       </c>
     </row>
     <row r="42">
@@ -2090,20 +2137,15 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2131,20 +2173,15 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2172,20 +2209,15 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2213,20 +2245,15 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2257,17 +2284,12 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2298,17 +2320,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2339,17 +2356,12 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2380,17 +2392,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2421,17 +2428,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2462,17 +2464,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2503,17 +2500,12 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2544,17 +2536,12 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2585,17 +2572,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2623,20 +2605,15 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2667,17 +2644,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2705,20 +2677,15 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2749,17 +2716,12 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2790,17 +2752,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2831,17 +2788,12 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2872,17 +2824,12 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2913,17 +2860,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2954,17 +2896,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2995,17 +2932,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3033,20 +2965,15 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3077,17 +3004,12 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3118,17 +3040,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3159,17 +3076,12 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3197,20 +3109,15 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3241,17 +3148,12 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3279,20 +3181,15 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3323,17 +3220,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3364,17 +3256,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3405,17 +3292,12 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3446,17 +3328,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3487,17 +3364,12 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3525,20 +3397,15 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3566,20 +3433,15 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3607,20 +3469,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3648,20 +3505,15 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3689,20 +3541,15 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3730,20 +3577,15 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3774,17 +3616,12 @@
         <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1.056189242536393</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3820,6 +3657,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3855,6 +3693,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3890,6 +3729,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3925,6 +3765,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3960,6 +3801,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3995,6 +3837,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4030,6 +3873,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4057,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4065,6 +3909,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4100,6 +3945,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4127,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4135,6 +3981,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4162,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4170,6 +4017,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4205,6 +4053,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4240,6 +4089,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4275,6 +4125,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4310,6 +4161,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4345,6 +4197,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4380,6 +4233,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4415,6 +4269,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4450,6 +4305,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4485,6 +4341,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4520,6 +4377,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4555,6 +4413,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4590,6 +4449,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4625,6 +4485,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4660,6 +4521,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4695,6 +4557,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4730,6 +4593,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4765,6 +4629,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4800,6 +4665,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4835,6 +4701,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4870,6 +4737,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4905,6 +4773,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4940,6 +4809,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4975,6 +4845,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>398.6</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>398.6</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>398.6</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>398.6</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-41208.3287</v>
+        <v>-34721.6778</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>400.8</v>
+        <v>397</v>
       </c>
       <c r="C3" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D3" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E3" t="n">
-        <v>400.8</v>
+        <v>397</v>
       </c>
       <c r="F3" t="n">
-        <v>1095.6996</v>
+        <v>910</v>
       </c>
       <c r="G3" t="n">
-        <v>-40112.6291</v>
+        <v>-35631.6778</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>400</v>
-      </c>
-      <c r="K3" t="n">
-        <v>400</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>404</v>
+        <v>396.9</v>
       </c>
       <c r="C4" t="n">
-        <v>405</v>
+        <v>396.9</v>
       </c>
       <c r="D4" t="n">
-        <v>405.3</v>
+        <v>396.9</v>
       </c>
       <c r="E4" t="n">
-        <v>404</v>
+        <v>396.9</v>
       </c>
       <c r="F4" t="n">
-        <v>566.6373</v>
+        <v>6.6054</v>
       </c>
       <c r="G4" t="n">
-        <v>-39545.9918</v>
+        <v>-35638.28320000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>404</v>
-      </c>
-      <c r="K4" t="n">
-        <v>400</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>405.3</v>
+        <v>396.9</v>
       </c>
       <c r="C5" t="n">
-        <v>405.3</v>
+        <v>396.9</v>
       </c>
       <c r="D5" t="n">
-        <v>405.3</v>
+        <v>396.9</v>
       </c>
       <c r="E5" t="n">
-        <v>405.2</v>
+        <v>396.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1395.8234</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-38150.1684</v>
+        <v>-35638.28320000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>405</v>
-      </c>
-      <c r="K5" t="n">
-        <v>400</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404.2</v>
+        <v>396.9</v>
       </c>
       <c r="C6" t="n">
-        <v>404.2</v>
+        <v>396.9</v>
       </c>
       <c r="D6" t="n">
-        <v>404.2</v>
+        <v>396.9</v>
       </c>
       <c r="E6" t="n">
-        <v>404.2</v>
+        <v>396.9</v>
       </c>
       <c r="F6" t="n">
-        <v>411.0868</v>
+        <v>85.42870000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-38561.25519999999</v>
+        <v>-35638.28320000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>405.3</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>404.9</v>
+        <v>395</v>
       </c>
       <c r="C7" t="n">
-        <v>406</v>
+        <v>392.6</v>
       </c>
       <c r="D7" t="n">
-        <v>406</v>
+        <v>396.8</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9</v>
+        <v>392.6</v>
       </c>
       <c r="F7" t="n">
-        <v>4028.9885</v>
+        <v>4548.7651</v>
       </c>
       <c r="G7" t="n">
-        <v>-34532.26669999999</v>
+        <v>-40187.0483</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>404.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>406</v>
+        <v>392.9</v>
       </c>
       <c r="C8" t="n">
-        <v>408</v>
+        <v>392.9</v>
       </c>
       <c r="D8" t="n">
-        <v>408</v>
+        <v>392.9</v>
       </c>
       <c r="E8" t="n">
-        <v>406</v>
+        <v>392.9</v>
       </c>
       <c r="F8" t="n">
-        <v>5492.2451</v>
+        <v>278.7</v>
       </c>
       <c r="G8" t="n">
-        <v>-29040.02159999999</v>
+        <v>-39908.34830000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -710,14 +678,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -728,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407.9</v>
+        <v>394.9</v>
       </c>
       <c r="C9" t="n">
-        <v>405.2</v>
+        <v>394.9</v>
       </c>
       <c r="D9" t="n">
-        <v>407.9</v>
+        <v>394.9</v>
       </c>
       <c r="E9" t="n">
-        <v>405.2</v>
+        <v>394.9</v>
       </c>
       <c r="F9" t="n">
-        <v>283.7</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-29323.72159999999</v>
+        <v>-39905.34830000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -752,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -770,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>408.3</v>
+        <v>394.9</v>
       </c>
       <c r="C10" t="n">
-        <v>405.1</v>
+        <v>394.9</v>
       </c>
       <c r="D10" t="n">
-        <v>408.3</v>
+        <v>394.9</v>
       </c>
       <c r="E10" t="n">
-        <v>405.1</v>
+        <v>394.9</v>
       </c>
       <c r="F10" t="n">
-        <v>6232.1666</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>-35555.88819999999</v>
+        <v>-39905.34830000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -794,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -812,38 +762,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>408.3</v>
+        <v>394.9</v>
       </c>
       <c r="C11" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="D11" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="E11" t="n">
-        <v>408.3</v>
+        <v>394.9</v>
       </c>
       <c r="F11" t="n">
-        <v>11894.0999</v>
+        <v>992</v>
       </c>
       <c r="G11" t="n">
-        <v>-23661.78829999999</v>
+        <v>-39905.34830000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>394.9</v>
+      </c>
       <c r="K11" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>394.9</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,36 +802,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="C12" t="n">
-        <v>409</v>
+        <v>394.9</v>
       </c>
       <c r="D12" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="E12" t="n">
-        <v>409</v>
+        <v>394.9</v>
       </c>
       <c r="F12" t="n">
-        <v>2693</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>-26354.78829999999</v>
+        <v>-39905.34830000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>394.9</v>
+      </c>
       <c r="K12" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -896,36 +846,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="C13" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="D13" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="E13" t="n">
-        <v>410.8</v>
+        <v>394.9</v>
       </c>
       <c r="F13" t="n">
-        <v>47.2489</v>
+        <v>966.2155</v>
       </c>
       <c r="G13" t="n">
-        <v>-26307.53939999999</v>
+        <v>-39905.34830000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>394.9</v>
+      </c>
       <c r="K13" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -938,36 +890,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>410.8</v>
+        <v>393.5</v>
       </c>
       <c r="C14" t="n">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D14" t="n">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="E14" t="n">
-        <v>410.8</v>
+        <v>393</v>
       </c>
       <c r="F14" t="n">
-        <v>1350</v>
+        <v>3593.5516</v>
       </c>
       <c r="G14" t="n">
-        <v>-24957.53939999999</v>
+        <v>-43498.8999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>394.9</v>
+      </c>
       <c r="K14" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -980,32 +934,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>409</v>
+        <v>393.5</v>
       </c>
       <c r="C15" t="n">
-        <v>411</v>
+        <v>393.5</v>
       </c>
       <c r="D15" t="n">
-        <v>411</v>
+        <v>393.5</v>
       </c>
       <c r="E15" t="n">
-        <v>408</v>
+        <v>393.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1055.8091</v>
+        <v>315.4132</v>
       </c>
       <c r="G15" t="n">
-        <v>-24957.53939999999</v>
+        <v>-43814.31310000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>394</v>
+      </c>
       <c r="K15" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1022,32 +978,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410.9</v>
+        <v>394</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9</v>
+        <v>394</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9</v>
+        <v>394</v>
       </c>
       <c r="E16" t="n">
-        <v>410.9</v>
+        <v>394</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>299.0599</v>
       </c>
       <c r="G16" t="n">
-        <v>-23957.53939999999</v>
+        <v>-43515.25320000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>393.5</v>
+      </c>
       <c r="K16" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1064,32 +1022,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>411.2</v>
+        <v>396</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2</v>
+        <v>396</v>
       </c>
       <c r="D17" t="n">
-        <v>411.2</v>
+        <v>396</v>
       </c>
       <c r="E17" t="n">
-        <v>411.2</v>
+        <v>396</v>
       </c>
       <c r="F17" t="n">
-        <v>138.9</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>-24096.4394</v>
+        <v>-41515.25320000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>394</v>
+      </c>
       <c r="K17" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1106,32 +1066,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>411.2</v>
+        <v>396</v>
       </c>
       <c r="C18" t="n">
-        <v>411.2</v>
+        <v>397.8</v>
       </c>
       <c r="D18" t="n">
-        <v>411.2</v>
+        <v>397.8</v>
       </c>
       <c r="E18" t="n">
-        <v>410.2</v>
+        <v>396</v>
       </c>
       <c r="F18" t="n">
-        <v>444.4171</v>
+        <v>852.438</v>
       </c>
       <c r="G18" t="n">
-        <v>-24096.4394</v>
+        <v>-40662.8152</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>396</v>
+      </c>
       <c r="K18" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1148,32 +1110,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>410.2</v>
+        <v>398.2</v>
       </c>
       <c r="C19" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="D19" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="E19" t="n">
-        <v>410.2</v>
+        <v>398.2</v>
       </c>
       <c r="F19" t="n">
-        <v>196.2699</v>
+        <v>2042.8</v>
       </c>
       <c r="G19" t="n">
-        <v>-24292.70929999999</v>
+        <v>-38620.0152</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>397.8</v>
+      </c>
       <c r="K19" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1190,32 +1154,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="D20" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="E20" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="F20" t="n">
-        <v>4111.8388</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>-24292.70929999999</v>
+        <v>-38620.0152</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>398.3</v>
+      </c>
       <c r="K20" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1232,32 +1198,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="C21" t="n">
-        <v>410.2</v>
+        <v>399.4</v>
       </c>
       <c r="D21" t="n">
-        <v>410.2</v>
+        <v>399.4</v>
       </c>
       <c r="E21" t="n">
-        <v>410.2</v>
+        <v>398.3</v>
       </c>
       <c r="F21" t="n">
-        <v>98.54000000000001</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>-24292.70929999999</v>
+        <v>-34620.0152</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>398.3</v>
+      </c>
       <c r="K21" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1274,22 +1242,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>410.3</v>
+        <v>399.4</v>
       </c>
       <c r="C22" t="n">
-        <v>410.3</v>
+        <v>399.6</v>
       </c>
       <c r="D22" t="n">
-        <v>410.3</v>
+        <v>399.6</v>
       </c>
       <c r="E22" t="n">
-        <v>410.3</v>
+        <v>399.4</v>
       </c>
       <c r="F22" t="n">
-        <v>1890.7229</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>-22401.98639999999</v>
+        <v>-32620.0152</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1299,7 +1267,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1316,22 +1284,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>410</v>
+        <v>398.4</v>
       </c>
       <c r="C23" t="n">
-        <v>410</v>
+        <v>399.3</v>
       </c>
       <c r="D23" t="n">
-        <v>410</v>
+        <v>399.3</v>
       </c>
       <c r="E23" t="n">
-        <v>410</v>
+        <v>398.3</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>5524.6947</v>
       </c>
       <c r="G23" t="n">
-        <v>-22406.98639999999</v>
+        <v>-38144.7099</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1341,7 +1309,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1358,22 +1326,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>410.3</v>
+        <v>399.3</v>
       </c>
       <c r="C24" t="n">
-        <v>410.3</v>
+        <v>398.3</v>
       </c>
       <c r="D24" t="n">
-        <v>410.3</v>
+        <v>400</v>
       </c>
       <c r="E24" t="n">
-        <v>410.3</v>
+        <v>398.3</v>
       </c>
       <c r="F24" t="n">
-        <v>295</v>
+        <v>3185</v>
       </c>
       <c r="G24" t="n">
-        <v>-22111.98639999999</v>
+        <v>-41329.7099</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1383,7 +1351,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1400,22 +1368,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>410.3</v>
+        <v>399.9</v>
       </c>
       <c r="C25" t="n">
-        <v>410.3</v>
+        <v>399.9</v>
       </c>
       <c r="D25" t="n">
-        <v>410.3</v>
+        <v>399.9</v>
       </c>
       <c r="E25" t="n">
-        <v>410.3</v>
+        <v>399.9</v>
       </c>
       <c r="F25" t="n">
-        <v>295</v>
+        <v>571</v>
       </c>
       <c r="G25" t="n">
-        <v>-22111.98639999999</v>
+        <v>-40758.7099</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1425,7 +1393,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1442,22 +1410,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>411.6</v>
+        <v>399.9</v>
       </c>
       <c r="C26" t="n">
-        <v>420</v>
+        <v>399.9</v>
       </c>
       <c r="D26" t="n">
-        <v>420</v>
+        <v>399.9</v>
       </c>
       <c r="E26" t="n">
-        <v>410.8</v>
+        <v>399.9</v>
       </c>
       <c r="F26" t="n">
-        <v>15801.3839</v>
+        <v>1400</v>
       </c>
       <c r="G26" t="n">
-        <v>-6310.602499999994</v>
+        <v>-40758.7099</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1467,7 +1435,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1484,22 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>420</v>
+        <v>399.9</v>
       </c>
       <c r="C27" t="n">
-        <v>429.7</v>
+        <v>399.9</v>
       </c>
       <c r="D27" t="n">
-        <v>429.7</v>
+        <v>399.9</v>
       </c>
       <c r="E27" t="n">
-        <v>420</v>
+        <v>399.9</v>
       </c>
       <c r="F27" t="n">
-        <v>5406.0446</v>
+        <v>310</v>
       </c>
       <c r="G27" t="n">
-        <v>-904.5578999999934</v>
+        <v>-40758.7099</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1509,7 +1477,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1526,22 +1494,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>429.7</v>
+        <v>399.9</v>
       </c>
       <c r="C28" t="n">
-        <v>429.7</v>
+        <v>398.3</v>
       </c>
       <c r="D28" t="n">
-        <v>429.7</v>
+        <v>399.9</v>
       </c>
       <c r="E28" t="n">
-        <v>429.7</v>
+        <v>398.3</v>
       </c>
       <c r="F28" t="n">
-        <v>866.401</v>
+        <v>264.5959</v>
       </c>
       <c r="G28" t="n">
-        <v>-904.5578999999934</v>
+        <v>-41023.3058</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1551,7 +1519,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1568,22 +1536,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>429.7</v>
+        <v>398.3</v>
       </c>
       <c r="C29" t="n">
-        <v>433.9</v>
+        <v>398.9</v>
       </c>
       <c r="D29" t="n">
-        <v>438.8</v>
+        <v>398.9</v>
       </c>
       <c r="E29" t="n">
-        <v>429.7</v>
+        <v>398.3</v>
       </c>
       <c r="F29" t="n">
-        <v>14322.7613</v>
+        <v>1640.7352</v>
       </c>
       <c r="G29" t="n">
-        <v>13418.20340000001</v>
+        <v>-39382.5706</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1593,7 +1561,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1610,22 +1578,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>434</v>
+        <v>399.9</v>
       </c>
       <c r="C30" t="n">
-        <v>432.8</v>
+        <v>396.5</v>
       </c>
       <c r="D30" t="n">
-        <v>434.9</v>
+        <v>399.9</v>
       </c>
       <c r="E30" t="n">
-        <v>429.5</v>
+        <v>396.5</v>
       </c>
       <c r="F30" t="n">
-        <v>5062.5042</v>
+        <v>1828.2581</v>
       </c>
       <c r="G30" t="n">
-        <v>8355.699200000006</v>
+        <v>-41210.8287</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1635,7 +1603,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1652,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>432.9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="n">
-        <v>433.9</v>
+        <v>400</v>
       </c>
       <c r="D31" t="n">
-        <v>433.9</v>
+        <v>400</v>
       </c>
       <c r="E31" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="F31" t="n">
-        <v>2010.6299</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>10366.32910000001</v>
+        <v>-41208.3287</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1677,7 +1645,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1694,22 +1662,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>426</v>
+        <v>400.8</v>
       </c>
       <c r="C32" t="n">
-        <v>427.1</v>
+        <v>404</v>
       </c>
       <c r="D32" t="n">
-        <v>429.6</v>
+        <v>404</v>
       </c>
       <c r="E32" t="n">
-        <v>421.8</v>
+        <v>400.8</v>
       </c>
       <c r="F32" t="n">
-        <v>1536.4442</v>
+        <v>1095.6996</v>
       </c>
       <c r="G32" t="n">
-        <v>8829.884900000006</v>
+        <v>-40112.6291</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1719,7 +1687,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1736,22 +1704,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>427.1</v>
+        <v>404</v>
       </c>
       <c r="C33" t="n">
-        <v>427.1</v>
+        <v>405</v>
       </c>
       <c r="D33" t="n">
-        <v>427.1</v>
+        <v>405.3</v>
       </c>
       <c r="E33" t="n">
-        <v>427.1</v>
+        <v>404</v>
       </c>
       <c r="F33" t="n">
-        <v>446.8158</v>
+        <v>566.6373</v>
       </c>
       <c r="G33" t="n">
-        <v>8829.884900000006</v>
+        <v>-39545.9918</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1761,7 +1729,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1778,22 +1746,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>428.8</v>
+        <v>405.3</v>
       </c>
       <c r="C34" t="n">
-        <v>429</v>
+        <v>405.3</v>
       </c>
       <c r="D34" t="n">
-        <v>429</v>
+        <v>405.3</v>
       </c>
       <c r="E34" t="n">
-        <v>428.8</v>
+        <v>405.2</v>
       </c>
       <c r="F34" t="n">
-        <v>2448.6001</v>
+        <v>1395.8234</v>
       </c>
       <c r="G34" t="n">
-        <v>11278.48500000001</v>
+        <v>-38150.1684</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1803,7 +1771,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1820,22 +1788,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>428.8</v>
+        <v>404.2</v>
       </c>
       <c r="C35" t="n">
-        <v>429.8</v>
+        <v>404.2</v>
       </c>
       <c r="D35" t="n">
-        <v>429.8</v>
+        <v>404.2</v>
       </c>
       <c r="E35" t="n">
-        <v>428.8</v>
+        <v>404.2</v>
       </c>
       <c r="F35" t="n">
-        <v>150</v>
+        <v>411.0868</v>
       </c>
       <c r="G35" t="n">
-        <v>11428.48500000001</v>
+        <v>-38561.25519999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1845,7 +1813,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1862,22 +1830,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>428.8</v>
+        <v>404.9</v>
       </c>
       <c r="C36" t="n">
-        <v>428.8</v>
+        <v>406</v>
       </c>
       <c r="D36" t="n">
-        <v>430.9</v>
+        <v>406</v>
       </c>
       <c r="E36" t="n">
-        <v>427.3</v>
+        <v>404.9</v>
       </c>
       <c r="F36" t="n">
-        <v>2624.9992</v>
+        <v>4028.9885</v>
       </c>
       <c r="G36" t="n">
-        <v>8803.485800000006</v>
+        <v>-34532.26669999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1887,7 +1855,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1904,22 +1872,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>427.8</v>
+        <v>406</v>
       </c>
       <c r="C37" t="n">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="D37" t="n">
-        <v>427.8</v>
+        <v>408</v>
       </c>
       <c r="E37" t="n">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="F37" t="n">
-        <v>1525.8564</v>
+        <v>5492.2451</v>
       </c>
       <c r="G37" t="n">
-        <v>7277.629400000006</v>
+        <v>-29040.02159999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1929,7 +1897,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1946,22 +1914,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>425</v>
+        <v>407.9</v>
       </c>
       <c r="C38" t="n">
-        <v>425.1</v>
+        <v>405.2</v>
       </c>
       <c r="D38" t="n">
-        <v>425.1</v>
+        <v>407.9</v>
       </c>
       <c r="E38" t="n">
-        <v>424.9</v>
+        <v>405.2</v>
       </c>
       <c r="F38" t="n">
-        <v>3223.3428</v>
+        <v>283.7</v>
       </c>
       <c r="G38" t="n">
-        <v>10500.97220000001</v>
+        <v>-29323.72159999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1971,7 +1939,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1988,22 +1956,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>424.9</v>
+        <v>408.3</v>
       </c>
       <c r="C39" t="n">
-        <v>427.6</v>
+        <v>405.1</v>
       </c>
       <c r="D39" t="n">
-        <v>427.7</v>
+        <v>408.3</v>
       </c>
       <c r="E39" t="n">
-        <v>424.9</v>
+        <v>405.1</v>
       </c>
       <c r="F39" t="n">
-        <v>4718.7895</v>
+        <v>6232.1666</v>
       </c>
       <c r="G39" t="n">
-        <v>15219.76170000001</v>
+        <v>-35555.88819999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2013,7 +1981,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2030,22 +1998,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>427.6</v>
+        <v>408.3</v>
       </c>
       <c r="C40" t="n">
-        <v>427.5</v>
+        <v>410.8</v>
       </c>
       <c r="D40" t="n">
-        <v>427.6</v>
+        <v>410.8</v>
       </c>
       <c r="E40" t="n">
-        <v>427.5</v>
+        <v>408.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1207.0756</v>
+        <v>11894.0999</v>
       </c>
       <c r="G40" t="n">
-        <v>14012.68610000001</v>
+        <v>-23661.78829999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2055,7 +2023,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2072,76 +2040,80 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>427</v>
+        <v>410.8</v>
       </c>
       <c r="C41" t="n">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D41" t="n">
-        <v>427</v>
+        <v>410.8</v>
       </c>
       <c r="E41" t="n">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F41" t="n">
-        <v>1.8392</v>
+        <v>2693</v>
       </c>
       <c r="G41" t="n">
-        <v>14010.84690000001</v>
+        <v>-26354.78829999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>405.3</v>
+        <v>394.9</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1.048540587219344</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.01325</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>424.8</v>
+        <v>410.8</v>
       </c>
       <c r="C42" t="n">
-        <v>424.8</v>
+        <v>410.8</v>
       </c>
       <c r="D42" t="n">
-        <v>424.8</v>
+        <v>410.8</v>
       </c>
       <c r="E42" t="n">
-        <v>424.8</v>
+        <v>410.8</v>
       </c>
       <c r="F42" t="n">
-        <v>53.043</v>
+        <v>47.2489</v>
       </c>
       <c r="G42" t="n">
-        <v>13957.80390000001</v>
+        <v>-26307.53939999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2152,32 +2124,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>421.2</v>
+        <v>410.8</v>
       </c>
       <c r="C43" t="n">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D43" t="n">
-        <v>421.2</v>
+        <v>411</v>
       </c>
       <c r="E43" t="n">
-        <v>417</v>
+        <v>410.8</v>
       </c>
       <c r="F43" t="n">
-        <v>15409.2834</v>
+        <v>1350</v>
       </c>
       <c r="G43" t="n">
-        <v>-1451.479499999994</v>
+        <v>-24957.53939999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2188,32 +2166,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>421.1</v>
+        <v>409</v>
       </c>
       <c r="C44" t="n">
-        <v>421.8</v>
+        <v>411</v>
       </c>
       <c r="D44" t="n">
-        <v>421.8</v>
+        <v>411</v>
       </c>
       <c r="E44" t="n">
-        <v>418.2</v>
+        <v>408</v>
       </c>
       <c r="F44" t="n">
-        <v>813.0851</v>
+        <v>1055.8091</v>
       </c>
       <c r="G44" t="n">
-        <v>-638.394399999994</v>
+        <v>-24957.53939999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2224,32 +2208,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>418.3</v>
+        <v>410.9</v>
       </c>
       <c r="C45" t="n">
-        <v>418.2</v>
+        <v>411.9</v>
       </c>
       <c r="D45" t="n">
-        <v>418.3</v>
+        <v>411.9</v>
       </c>
       <c r="E45" t="n">
-        <v>418.2</v>
+        <v>410.9</v>
       </c>
       <c r="F45" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>-3638.394399999994</v>
+        <v>-23957.53939999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2260,22 +2250,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>418.4</v>
+        <v>411.2</v>
       </c>
       <c r="C46" t="n">
-        <v>420</v>
+        <v>411.2</v>
       </c>
       <c r="D46" t="n">
-        <v>424.5</v>
+        <v>411.2</v>
       </c>
       <c r="E46" t="n">
-        <v>418.4</v>
+        <v>411.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1632.1548</v>
+        <v>138.9</v>
       </c>
       <c r="G46" t="n">
-        <v>-2006.239599999994</v>
+        <v>-24096.4394</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2284,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2292,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>422</v>
+        <v>411.2</v>
       </c>
       <c r="C47" t="n">
-        <v>422.1</v>
+        <v>411.2</v>
       </c>
       <c r="D47" t="n">
-        <v>422.1</v>
+        <v>411.2</v>
       </c>
       <c r="E47" t="n">
-        <v>422</v>
+        <v>410.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1684.9999</v>
+        <v>444.4171</v>
       </c>
       <c r="G47" t="n">
-        <v>-321.2396999999937</v>
+        <v>-24096.4394</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2320,8 +2316,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2334,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>419.7</v>
+        <v>410.2</v>
       </c>
       <c r="C48" t="n">
-        <v>419.7</v>
+        <v>410.2</v>
       </c>
       <c r="D48" t="n">
-        <v>419.7</v>
+        <v>410.2</v>
       </c>
       <c r="E48" t="n">
-        <v>419.7</v>
+        <v>410.2</v>
       </c>
       <c r="F48" t="n">
-        <v>600</v>
+        <v>196.2699</v>
       </c>
       <c r="G48" t="n">
-        <v>-921.2396999999937</v>
+        <v>-24292.70929999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2356,8 +2358,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2376,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="C49" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="D49" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="E49" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="F49" t="n">
-        <v>6.6304</v>
+        <v>4111.8388</v>
       </c>
       <c r="G49" t="n">
-        <v>-914.6092999999937</v>
+        <v>-24292.70929999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2392,8 +2400,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2418,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="C50" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="D50" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="E50" t="n">
-        <v>422.1</v>
+        <v>410.2</v>
       </c>
       <c r="F50" t="n">
-        <v>1022.9729</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-914.6092999999937</v>
+        <v>-24292.70929999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2428,8 +2442,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2460,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>422.1</v>
+        <v>410.3</v>
       </c>
       <c r="C51" t="n">
-        <v>423.1</v>
+        <v>410.3</v>
       </c>
       <c r="D51" t="n">
-        <v>423.1</v>
+        <v>410.3</v>
       </c>
       <c r="E51" t="n">
-        <v>422.1</v>
+        <v>410.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1423.1418</v>
+        <v>1890.7229</v>
       </c>
       <c r="G51" t="n">
-        <v>508.5325000000064</v>
+        <v>-22401.98639999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2464,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2502,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>422.7</v>
+        <v>410</v>
       </c>
       <c r="C52" t="n">
-        <v>425.7</v>
+        <v>410</v>
       </c>
       <c r="D52" t="n">
-        <v>425.7</v>
+        <v>410</v>
       </c>
       <c r="E52" t="n">
-        <v>422.7</v>
+        <v>410</v>
       </c>
       <c r="F52" t="n">
-        <v>2982.2344</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>3490.766900000006</v>
+        <v>-22406.98639999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2500,8 +2526,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2512,22 +2544,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>425.6</v>
+        <v>410.3</v>
       </c>
       <c r="C53" t="n">
-        <v>425.6</v>
+        <v>410.3</v>
       </c>
       <c r="D53" t="n">
-        <v>425.6</v>
+        <v>410.3</v>
       </c>
       <c r="E53" t="n">
-        <v>425.6</v>
+        <v>410.3</v>
       </c>
       <c r="F53" t="n">
-        <v>700</v>
+        <v>295</v>
       </c>
       <c r="G53" t="n">
-        <v>2790.766900000006</v>
+        <v>-22111.98639999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2536,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2586,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>425.6</v>
+        <v>410.3</v>
       </c>
       <c r="C54" t="n">
-        <v>425.5</v>
+        <v>410.3</v>
       </c>
       <c r="D54" t="n">
-        <v>425.6</v>
+        <v>410.3</v>
       </c>
       <c r="E54" t="n">
-        <v>425.5</v>
+        <v>410.3</v>
       </c>
       <c r="F54" t="n">
-        <v>4766.7964</v>
+        <v>295</v>
       </c>
       <c r="G54" t="n">
-        <v>-1976.029499999994</v>
+        <v>-22111.98639999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2572,8 +2610,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2584,32 +2628,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>425.5</v>
+        <v>411.6</v>
       </c>
       <c r="C55" t="n">
-        <v>425.5</v>
+        <v>420</v>
       </c>
       <c r="D55" t="n">
-        <v>425.5</v>
+        <v>420</v>
       </c>
       <c r="E55" t="n">
-        <v>425.5</v>
+        <v>410.8</v>
       </c>
       <c r="F55" t="n">
-        <v>951.1649</v>
+        <v>15801.3839</v>
       </c>
       <c r="G55" t="n">
-        <v>-1976.029499999994</v>
+        <v>-6310.602499999994</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2670,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>426.8</v>
+        <v>420</v>
       </c>
       <c r="C56" t="n">
-        <v>426.8</v>
+        <v>429.7</v>
       </c>
       <c r="D56" t="n">
-        <v>426.8</v>
+        <v>429.7</v>
       </c>
       <c r="E56" t="n">
-        <v>426.8</v>
+        <v>420</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>5406.0446</v>
       </c>
       <c r="G56" t="n">
-        <v>-1971.029499999994</v>
+        <v>-904.5578999999934</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2644,8 +2694,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2656,32 +2712,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>423.1</v>
+        <v>429.7</v>
       </c>
       <c r="C57" t="n">
-        <v>424.7</v>
+        <v>429.7</v>
       </c>
       <c r="D57" t="n">
-        <v>425.7</v>
+        <v>429.7</v>
       </c>
       <c r="E57" t="n">
-        <v>423.1</v>
+        <v>429.7</v>
       </c>
       <c r="F57" t="n">
-        <v>2304.7936</v>
+        <v>866.401</v>
       </c>
       <c r="G57" t="n">
-        <v>-4275.823099999994</v>
+        <v>-904.5578999999934</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2692,22 +2754,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>424.1</v>
+        <v>429.7</v>
       </c>
       <c r="C58" t="n">
-        <v>424.1</v>
+        <v>433.9</v>
       </c>
       <c r="D58" t="n">
-        <v>424.1</v>
+        <v>438.8</v>
       </c>
       <c r="E58" t="n">
-        <v>424.1</v>
+        <v>429.7</v>
       </c>
       <c r="F58" t="n">
-        <v>1321.6061</v>
+        <v>14322.7613</v>
       </c>
       <c r="G58" t="n">
-        <v>-5597.429199999994</v>
+        <v>13418.20340000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2716,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2796,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C59" t="n">
-        <v>422</v>
+        <v>432.8</v>
       </c>
       <c r="D59" t="n">
-        <v>422</v>
+        <v>434.9</v>
       </c>
       <c r="E59" t="n">
-        <v>422</v>
+        <v>429.5</v>
       </c>
       <c r="F59" t="n">
-        <v>1.8392</v>
+        <v>5062.5042</v>
       </c>
       <c r="G59" t="n">
-        <v>-5599.268399999994</v>
+        <v>8355.699200000006</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2752,8 +2820,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2764,22 +2838,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>422</v>
+        <v>432.9</v>
       </c>
       <c r="C60" t="n">
-        <v>421.3</v>
+        <v>433.9</v>
       </c>
       <c r="D60" t="n">
-        <v>422</v>
+        <v>433.9</v>
       </c>
       <c r="E60" t="n">
-        <v>421.3</v>
+        <v>425</v>
       </c>
       <c r="F60" t="n">
-        <v>600</v>
+        <v>2010.6299</v>
       </c>
       <c r="G60" t="n">
-        <v>-6199.268399999994</v>
+        <v>10366.32910000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2788,8 +2862,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2800,22 +2880,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>421.2</v>
+        <v>426</v>
       </c>
       <c r="C61" t="n">
-        <v>424.3</v>
+        <v>427.1</v>
       </c>
       <c r="D61" t="n">
-        <v>424.3</v>
+        <v>429.6</v>
       </c>
       <c r="E61" t="n">
-        <v>421.2</v>
+        <v>421.8</v>
       </c>
       <c r="F61" t="n">
-        <v>949.4</v>
+        <v>1536.4442</v>
       </c>
       <c r="G61" t="n">
-        <v>-5249.868399999995</v>
+        <v>8829.884900000006</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2824,8 +2904,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2836,22 +2922,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>422</v>
+        <v>427.1</v>
       </c>
       <c r="C62" t="n">
-        <v>421.1</v>
+        <v>427.1</v>
       </c>
       <c r="D62" t="n">
-        <v>422</v>
+        <v>427.1</v>
       </c>
       <c r="E62" t="n">
-        <v>421.1</v>
+        <v>427.1</v>
       </c>
       <c r="F62" t="n">
-        <v>715.718</v>
+        <v>446.8158</v>
       </c>
       <c r="G62" t="n">
-        <v>-5965.586399999995</v>
+        <v>8829.884900000006</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2860,8 +2946,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2872,22 +2964,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>423</v>
+        <v>428.8</v>
       </c>
       <c r="C63" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D63" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E63" t="n">
-        <v>423</v>
+        <v>428.8</v>
       </c>
       <c r="F63" t="n">
-        <v>230.9171</v>
+        <v>2448.6001</v>
       </c>
       <c r="G63" t="n">
-        <v>-5734.669299999995</v>
+        <v>11278.48500000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2896,8 +2988,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2908,22 +3006,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>424</v>
+        <v>428.8</v>
       </c>
       <c r="C64" t="n">
-        <v>424</v>
+        <v>429.8</v>
       </c>
       <c r="D64" t="n">
-        <v>424</v>
+        <v>429.8</v>
       </c>
       <c r="E64" t="n">
-        <v>424</v>
+        <v>428.8</v>
       </c>
       <c r="F64" t="n">
-        <v>103.6911</v>
+        <v>150</v>
       </c>
       <c r="G64" t="n">
-        <v>-5734.669299999995</v>
+        <v>11428.48500000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2932,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2944,32 +3048,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>424</v>
+        <v>428.8</v>
       </c>
       <c r="C65" t="n">
-        <v>424</v>
+        <v>428.8</v>
       </c>
       <c r="D65" t="n">
-        <v>424</v>
+        <v>430.9</v>
       </c>
       <c r="E65" t="n">
-        <v>424</v>
+        <v>427.3</v>
       </c>
       <c r="F65" t="n">
-        <v>2353.0346</v>
+        <v>2624.9992</v>
       </c>
       <c r="G65" t="n">
-        <v>-5734.669299999995</v>
+        <v>8803.485800000006</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +3090,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>425.8</v>
+        <v>427.8</v>
       </c>
       <c r="C66" t="n">
-        <v>425.8</v>
+        <v>425</v>
       </c>
       <c r="D66" t="n">
-        <v>425.8</v>
+        <v>427.8</v>
       </c>
       <c r="E66" t="n">
-        <v>425.8</v>
+        <v>425</v>
       </c>
       <c r="F66" t="n">
-        <v>3.1225</v>
+        <v>1525.8564</v>
       </c>
       <c r="G66" t="n">
-        <v>-5731.546799999995</v>
+        <v>7277.629400000006</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3004,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3016,22 +3132,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>425.8</v>
+        <v>425</v>
       </c>
       <c r="C67" t="n">
-        <v>426</v>
+        <v>425.1</v>
       </c>
       <c r="D67" t="n">
-        <v>426</v>
+        <v>425.1</v>
       </c>
       <c r="E67" t="n">
-        <v>425.8</v>
+        <v>424.9</v>
       </c>
       <c r="F67" t="n">
-        <v>1165</v>
+        <v>3223.3428</v>
       </c>
       <c r="G67" t="n">
-        <v>-4566.546799999995</v>
+        <v>10500.97220000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3040,8 +3156,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +3174,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>426.8</v>
+        <v>424.9</v>
       </c>
       <c r="C68" t="n">
-        <v>426.8</v>
+        <v>427.6</v>
       </c>
       <c r="D68" t="n">
-        <v>426.8</v>
+        <v>427.7</v>
       </c>
       <c r="E68" t="n">
-        <v>426.8</v>
+        <v>424.9</v>
       </c>
       <c r="F68" t="n">
-        <v>70</v>
+        <v>4718.7895</v>
       </c>
       <c r="G68" t="n">
-        <v>-4496.546799999995</v>
+        <v>15219.76170000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3076,8 +3198,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3088,22 +3216,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>426.8</v>
+        <v>427.6</v>
       </c>
       <c r="C69" t="n">
-        <v>426.8</v>
+        <v>427.5</v>
       </c>
       <c r="D69" t="n">
-        <v>426.8</v>
+        <v>427.6</v>
       </c>
       <c r="E69" t="n">
-        <v>426.8</v>
+        <v>427.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1230</v>
+        <v>1207.0756</v>
       </c>
       <c r="G69" t="n">
-        <v>-4496.546799999995</v>
+        <v>14012.68610000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3112,40 +3240,48 @@
         <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1.077552544948088</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.015282730514519</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>427.5</v>
+        <v>427</v>
       </c>
       <c r="C70" t="n">
-        <v>427.8</v>
+        <v>427</v>
       </c>
       <c r="D70" t="n">
-        <v>427.8</v>
+        <v>427</v>
       </c>
       <c r="E70" t="n">
-        <v>427.5</v>
+        <v>427</v>
       </c>
       <c r="F70" t="n">
-        <v>3198.1684</v>
+        <v>1.8392</v>
       </c>
       <c r="G70" t="n">
-        <v>-1298.378399999995</v>
+        <v>14010.84690000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3160,22 +3296,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>427.7</v>
+        <v>424.8</v>
       </c>
       <c r="C71" t="n">
-        <v>427.8</v>
+        <v>424.8</v>
       </c>
       <c r="D71" t="n">
-        <v>427.8</v>
+        <v>424.8</v>
       </c>
       <c r="E71" t="n">
-        <v>427.7</v>
+        <v>424.8</v>
       </c>
       <c r="F71" t="n">
-        <v>2745.3154</v>
+        <v>53.043</v>
       </c>
       <c r="G71" t="n">
-        <v>-1298.378399999995</v>
+        <v>13957.80390000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3196,28 +3332,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>427.8</v>
+        <v>421.2</v>
       </c>
       <c r="C72" t="n">
-        <v>427.8</v>
+        <v>417</v>
       </c>
       <c r="D72" t="n">
-        <v>427.8</v>
+        <v>421.2</v>
       </c>
       <c r="E72" t="n">
-        <v>427.8</v>
+        <v>417</v>
       </c>
       <c r="F72" t="n">
-        <v>605.5441</v>
+        <v>15409.2834</v>
       </c>
       <c r="G72" t="n">
-        <v>-1298.378399999995</v>
+        <v>-1451.479499999994</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3232,28 +3368,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>424.8</v>
+        <v>421.1</v>
       </c>
       <c r="C73" t="n">
-        <v>426</v>
+        <v>421.8</v>
       </c>
       <c r="D73" t="n">
-        <v>426</v>
+        <v>421.8</v>
       </c>
       <c r="E73" t="n">
-        <v>424.8</v>
+        <v>418.2</v>
       </c>
       <c r="F73" t="n">
-        <v>1458.916</v>
+        <v>813.0851</v>
       </c>
       <c r="G73" t="n">
-        <v>-2757.294399999994</v>
+        <v>-638.394399999994</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3268,22 +3404,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>424.5</v>
+        <v>418.3</v>
       </c>
       <c r="C74" t="n">
-        <v>424.5</v>
+        <v>418.2</v>
       </c>
       <c r="D74" t="n">
-        <v>424.5</v>
+        <v>418.3</v>
       </c>
       <c r="E74" t="n">
-        <v>424.5</v>
+        <v>418.2</v>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="n">
-        <v>-3757.294399999994</v>
+        <v>-3638.394399999994</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3304,22 +3440,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>426</v>
+        <v>418.4</v>
       </c>
       <c r="C75" t="n">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D75" t="n">
-        <v>426</v>
+        <v>424.5</v>
       </c>
       <c r="E75" t="n">
-        <v>426</v>
+        <v>418.4</v>
       </c>
       <c r="F75" t="n">
-        <v>1711.5476</v>
+        <v>1632.1548</v>
       </c>
       <c r="G75" t="n">
-        <v>-2045.746799999994</v>
+        <v>-2006.239599999994</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3340,22 +3476,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>428.1</v>
+        <v>422</v>
       </c>
       <c r="C76" t="n">
-        <v>428.8</v>
+        <v>422.1</v>
       </c>
       <c r="D76" t="n">
-        <v>428.8</v>
+        <v>422.1</v>
       </c>
       <c r="E76" t="n">
-        <v>428.1</v>
+        <v>422</v>
       </c>
       <c r="F76" t="n">
-        <v>3843.4291</v>
+        <v>1684.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>1797.682300000006</v>
+        <v>-321.2396999999937</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3376,28 +3512,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>428.8</v>
+        <v>419.7</v>
       </c>
       <c r="C77" t="n">
-        <v>428.3</v>
+        <v>419.7</v>
       </c>
       <c r="D77" t="n">
-        <v>428.8</v>
+        <v>419.7</v>
       </c>
       <c r="E77" t="n">
-        <v>428.3</v>
+        <v>419.7</v>
       </c>
       <c r="F77" t="n">
-        <v>1890</v>
+        <v>600</v>
       </c>
       <c r="G77" t="n">
-        <v>-92.31769999999437</v>
+        <v>-921.2396999999937</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3412,28 +3548,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="C78" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="D78" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="E78" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="F78" t="n">
-        <v>1610.966</v>
+        <v>6.6304</v>
       </c>
       <c r="G78" t="n">
-        <v>-92.31769999999437</v>
+        <v>-914.6092999999937</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3448,28 +3584,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="C79" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="D79" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="E79" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="F79" t="n">
-        <v>99.9611</v>
+        <v>1022.9729</v>
       </c>
       <c r="G79" t="n">
-        <v>-92.31769999999437</v>
+        <v>-914.6092999999937</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3484,28 +3620,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="C80" t="n">
-        <v>428.8</v>
+        <v>423.1</v>
       </c>
       <c r="D80" t="n">
-        <v>428.8</v>
+        <v>423.1</v>
       </c>
       <c r="E80" t="n">
-        <v>428.3</v>
+        <v>422.1</v>
       </c>
       <c r="F80" t="n">
-        <v>150</v>
+        <v>1423.1418</v>
       </c>
       <c r="G80" t="n">
-        <v>57.68230000000563</v>
+        <v>508.5325000000064</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3520,28 +3656,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>428.8</v>
+        <v>422.7</v>
       </c>
       <c r="C81" t="n">
-        <v>428.8</v>
+        <v>425.7</v>
       </c>
       <c r="D81" t="n">
-        <v>428.8</v>
+        <v>425.7</v>
       </c>
       <c r="E81" t="n">
-        <v>428.8</v>
+        <v>422.7</v>
       </c>
       <c r="F81" t="n">
-        <v>2263.2142</v>
+        <v>2982.2344</v>
       </c>
       <c r="G81" t="n">
-        <v>57.68230000000563</v>
+        <v>3490.766900000006</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3556,28 +3692,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>430</v>
+        <v>425.6</v>
       </c>
       <c r="C82" t="n">
-        <v>430</v>
+        <v>425.6</v>
       </c>
       <c r="D82" t="n">
-        <v>430.1</v>
+        <v>425.6</v>
       </c>
       <c r="E82" t="n">
-        <v>430</v>
+        <v>425.6</v>
       </c>
       <c r="F82" t="n">
-        <v>2728.028</v>
+        <v>700</v>
       </c>
       <c r="G82" t="n">
-        <v>2785.710300000005</v>
+        <v>2790.766900000006</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3592,28 +3728,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>430.1</v>
+        <v>425.6</v>
       </c>
       <c r="C83" t="n">
-        <v>430.1</v>
+        <v>425.5</v>
       </c>
       <c r="D83" t="n">
-        <v>430.1</v>
+        <v>425.6</v>
       </c>
       <c r="E83" t="n">
-        <v>430.1</v>
+        <v>425.5</v>
       </c>
       <c r="F83" t="n">
-        <v>70</v>
+        <v>4766.7964</v>
       </c>
       <c r="G83" t="n">
-        <v>2855.710300000005</v>
+        <v>-1976.029499999994</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3628,28 +3764,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>430.1</v>
+        <v>425.5</v>
       </c>
       <c r="C84" t="n">
-        <v>430.1</v>
+        <v>425.5</v>
       </c>
       <c r="D84" t="n">
-        <v>430.1</v>
+        <v>425.5</v>
       </c>
       <c r="E84" t="n">
-        <v>430.1</v>
+        <v>425.5</v>
       </c>
       <c r="F84" t="n">
-        <v>225.2491</v>
+        <v>951.1649</v>
       </c>
       <c r="G84" t="n">
-        <v>2855.710300000005</v>
+        <v>-1976.029499999994</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3664,28 +3800,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>430.3</v>
+        <v>426.8</v>
       </c>
       <c r="C85" t="n">
-        <v>430.1</v>
+        <v>426.8</v>
       </c>
       <c r="D85" t="n">
-        <v>430.3</v>
+        <v>426.8</v>
       </c>
       <c r="E85" t="n">
-        <v>430.1</v>
+        <v>426.8</v>
       </c>
       <c r="F85" t="n">
-        <v>4204.8215</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>2855.710300000005</v>
+        <v>-1971.029499999994</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3700,22 +3836,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>430</v>
+        <v>423.1</v>
       </c>
       <c r="C86" t="n">
-        <v>430</v>
+        <v>424.7</v>
       </c>
       <c r="D86" t="n">
-        <v>430</v>
+        <v>425.7</v>
       </c>
       <c r="E86" t="n">
-        <v>430</v>
+        <v>423.1</v>
       </c>
       <c r="F86" t="n">
-        <v>229.1074</v>
+        <v>2304.7936</v>
       </c>
       <c r="G86" t="n">
-        <v>2626.602900000005</v>
+        <v>-4275.823099999994</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3736,22 +3872,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>429.5</v>
+        <v>424.1</v>
       </c>
       <c r="C87" t="n">
-        <v>428</v>
+        <v>424.1</v>
       </c>
       <c r="D87" t="n">
-        <v>429.5</v>
+        <v>424.1</v>
       </c>
       <c r="E87" t="n">
-        <v>428</v>
+        <v>424.1</v>
       </c>
       <c r="F87" t="n">
-        <v>20000</v>
+        <v>1321.6061</v>
       </c>
       <c r="G87" t="n">
-        <v>-17373.39709999999</v>
+        <v>-5597.429199999994</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3772,22 +3908,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>428.5</v>
+        <v>422</v>
       </c>
       <c r="C88" t="n">
-        <v>428.5</v>
+        <v>422</v>
       </c>
       <c r="D88" t="n">
-        <v>428.5</v>
+        <v>422</v>
       </c>
       <c r="E88" t="n">
-        <v>428.5</v>
+        <v>422</v>
       </c>
       <c r="F88" t="n">
-        <v>1228.2566</v>
+        <v>1.8392</v>
       </c>
       <c r="G88" t="n">
-        <v>-16145.14049999999</v>
+        <v>-5599.268399999994</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3808,22 +3944,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>428.5</v>
+        <v>422</v>
       </c>
       <c r="C89" t="n">
-        <v>428.5</v>
+        <v>421.3</v>
       </c>
       <c r="D89" t="n">
-        <v>428.5</v>
+        <v>422</v>
       </c>
       <c r="E89" t="n">
-        <v>428.5</v>
+        <v>421.3</v>
       </c>
       <c r="F89" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="G89" t="n">
-        <v>-16145.14049999999</v>
+        <v>-6199.268399999994</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3844,22 +3980,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>430.1</v>
+        <v>421.2</v>
       </c>
       <c r="C90" t="n">
-        <v>430.1</v>
+        <v>424.3</v>
       </c>
       <c r="D90" t="n">
-        <v>430.1</v>
+        <v>424.3</v>
       </c>
       <c r="E90" t="n">
-        <v>430.1</v>
+        <v>421.2</v>
       </c>
       <c r="F90" t="n">
-        <v>290.5988</v>
+        <v>949.4</v>
       </c>
       <c r="G90" t="n">
-        <v>-15854.54169999999</v>
+        <v>-5249.868399999995</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3880,22 +4016,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C91" t="n">
-        <v>426</v>
+        <v>421.1</v>
       </c>
       <c r="D91" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E91" t="n">
-        <v>426</v>
+        <v>421.1</v>
       </c>
       <c r="F91" t="n">
-        <v>315</v>
+        <v>715.718</v>
       </c>
       <c r="G91" t="n">
-        <v>-16169.54169999999</v>
+        <v>-5965.586399999995</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3916,28 +4052,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C92" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D92" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E92" t="n">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F92" t="n">
-        <v>290.5988</v>
+        <v>230.9171</v>
       </c>
       <c r="G92" t="n">
-        <v>-16169.54169999999</v>
+        <v>-5734.669299999995</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3952,22 +4088,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C93" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D93" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E93" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F93" t="n">
-        <v>183.8135</v>
+        <v>103.6911</v>
       </c>
       <c r="G93" t="n">
-        <v>-16169.54169999999</v>
+        <v>-5734.669299999995</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3988,22 +4124,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C94" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D94" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E94" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F94" t="n">
-        <v>1273.4079</v>
+        <v>2353.0346</v>
       </c>
       <c r="G94" t="n">
-        <v>-17442.94959999999</v>
+        <v>-5734.669299999995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4024,28 +4160,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>424</v>
+        <v>425.8</v>
       </c>
       <c r="C95" t="n">
-        <v>425</v>
+        <v>425.8</v>
       </c>
       <c r="D95" t="n">
-        <v>425</v>
+        <v>425.8</v>
       </c>
       <c r="E95" t="n">
-        <v>424</v>
+        <v>425.8</v>
       </c>
       <c r="F95" t="n">
-        <v>209.2228</v>
+        <v>3.1225</v>
       </c>
       <c r="G95" t="n">
-        <v>-17442.94959999999</v>
+        <v>-5731.546799999995</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4060,28 +4196,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>425</v>
+        <v>425.8</v>
       </c>
       <c r="C96" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D96" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E96" t="n">
-        <v>423</v>
+        <v>425.8</v>
       </c>
       <c r="F96" t="n">
-        <v>1113.4939</v>
+        <v>1165</v>
       </c>
       <c r="G96" t="n">
-        <v>-18556.44349999999</v>
+        <v>-4566.546799999995</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4096,28 +4232,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>422.6</v>
+        <v>426.8</v>
       </c>
       <c r="C97" t="n">
-        <v>422.6</v>
+        <v>426.8</v>
       </c>
       <c r="D97" t="n">
-        <v>422.6</v>
+        <v>426.8</v>
       </c>
       <c r="E97" t="n">
-        <v>422.6</v>
+        <v>426.8</v>
       </c>
       <c r="F97" t="n">
-        <v>142.0274</v>
+        <v>70</v>
       </c>
       <c r="G97" t="n">
-        <v>-18698.47089999999</v>
+        <v>-4496.546799999995</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4132,28 +4268,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>422</v>
+        <v>426.8</v>
       </c>
       <c r="C98" t="n">
-        <v>422.4</v>
+        <v>426.8</v>
       </c>
       <c r="D98" t="n">
-        <v>422.4</v>
+        <v>426.8</v>
       </c>
       <c r="E98" t="n">
-        <v>422</v>
+        <v>426.8</v>
       </c>
       <c r="F98" t="n">
-        <v>2977.189</v>
+        <v>1230</v>
       </c>
       <c r="G98" t="n">
-        <v>-21675.65989999999</v>
+        <v>-4496.546799999995</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4168,28 +4304,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>422</v>
+        <v>427.5</v>
       </c>
       <c r="C99" t="n">
-        <v>422</v>
+        <v>427.8</v>
       </c>
       <c r="D99" t="n">
-        <v>422</v>
+        <v>427.8</v>
       </c>
       <c r="E99" t="n">
-        <v>422</v>
+        <v>427.5</v>
       </c>
       <c r="F99" t="n">
-        <v>1400</v>
+        <v>3198.1684</v>
       </c>
       <c r="G99" t="n">
-        <v>-23075.65989999999</v>
+        <v>-1298.378399999995</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4204,28 +4340,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>422</v>
+        <v>427.7</v>
       </c>
       <c r="C100" t="n">
-        <v>422</v>
+        <v>427.8</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>427.8</v>
       </c>
       <c r="E100" t="n">
-        <v>422</v>
+        <v>427.7</v>
       </c>
       <c r="F100" t="n">
-        <v>1878.26</v>
+        <v>2745.3154</v>
       </c>
       <c r="G100" t="n">
-        <v>-23075.65989999999</v>
+        <v>-1298.378399999995</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4240,28 +4376,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>422</v>
+        <v>427.8</v>
       </c>
       <c r="C101" t="n">
-        <v>423</v>
+        <v>427.8</v>
       </c>
       <c r="D101" t="n">
-        <v>423</v>
+        <v>427.8</v>
       </c>
       <c r="E101" t="n">
-        <v>422</v>
+        <v>427.8</v>
       </c>
       <c r="F101" t="n">
-        <v>4770.5545</v>
+        <v>605.5441</v>
       </c>
       <c r="G101" t="n">
-        <v>-18305.10539999999</v>
+        <v>-1298.378399999995</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4276,28 +4412,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>422</v>
+        <v>424.8</v>
       </c>
       <c r="C102" t="n">
-        <v>421.3</v>
+        <v>426</v>
       </c>
       <c r="D102" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E102" t="n">
-        <v>421.3</v>
+        <v>424.8</v>
       </c>
       <c r="F102" t="n">
-        <v>1006.94</v>
+        <v>1458.916</v>
       </c>
       <c r="G102" t="n">
-        <v>-19312.04539999999</v>
+        <v>-2757.294399999994</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4312,22 +4448,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>423</v>
+        <v>424.5</v>
       </c>
       <c r="C103" t="n">
-        <v>423</v>
+        <v>424.5</v>
       </c>
       <c r="D103" t="n">
-        <v>423</v>
+        <v>424.5</v>
       </c>
       <c r="E103" t="n">
-        <v>423</v>
+        <v>424.5</v>
       </c>
       <c r="F103" t="n">
-        <v>108.0001</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-19204.04529999999</v>
+        <v>-3757.294399999994</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4348,22 +4484,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C104" t="n">
-        <v>422.1</v>
+        <v>426</v>
       </c>
       <c r="D104" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E104" t="n">
-        <v>422.1</v>
+        <v>426</v>
       </c>
       <c r="F104" t="n">
-        <v>1725</v>
+        <v>1711.5476</v>
       </c>
       <c r="G104" t="n">
-        <v>-20929.04529999999</v>
+        <v>-2045.746799999994</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4384,22 +4520,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>424</v>
+        <v>428.1</v>
       </c>
       <c r="C105" t="n">
-        <v>426.3</v>
+        <v>428.8</v>
       </c>
       <c r="D105" t="n">
-        <v>429.6</v>
+        <v>428.8</v>
       </c>
       <c r="E105" t="n">
-        <v>424</v>
+        <v>428.1</v>
       </c>
       <c r="F105" t="n">
-        <v>350</v>
+        <v>3843.4291</v>
       </c>
       <c r="G105" t="n">
-        <v>-20579.04529999999</v>
+        <v>1797.682300000006</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4420,22 +4556,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>426.7</v>
+        <v>428.8</v>
       </c>
       <c r="C106" t="n">
-        <v>426.4</v>
+        <v>428.3</v>
       </c>
       <c r="D106" t="n">
-        <v>426.7</v>
+        <v>428.8</v>
       </c>
       <c r="E106" t="n">
-        <v>425.8</v>
+        <v>428.3</v>
       </c>
       <c r="F106" t="n">
-        <v>156.7</v>
+        <v>1890</v>
       </c>
       <c r="G106" t="n">
-        <v>-20422.34529999999</v>
+        <v>-92.31769999999437</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4456,22 +4592,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>426.4</v>
+        <v>428.3</v>
       </c>
       <c r="C107" t="n">
-        <v>426.5</v>
+        <v>428.3</v>
       </c>
       <c r="D107" t="n">
-        <v>426.5</v>
+        <v>428.3</v>
       </c>
       <c r="E107" t="n">
-        <v>426.4</v>
+        <v>428.3</v>
       </c>
       <c r="F107" t="n">
-        <v>895.7047</v>
+        <v>1610.966</v>
       </c>
       <c r="G107" t="n">
-        <v>-19526.64059999999</v>
+        <v>-92.31769999999437</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4492,22 +4628,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>426.3</v>
+        <v>428.3</v>
       </c>
       <c r="C108" t="n">
-        <v>426.3</v>
+        <v>428.3</v>
       </c>
       <c r="D108" t="n">
-        <v>426.3</v>
+        <v>428.3</v>
       </c>
       <c r="E108" t="n">
-        <v>426.3</v>
+        <v>428.3</v>
       </c>
       <c r="F108" t="n">
-        <v>2890.8817</v>
+        <v>99.9611</v>
       </c>
       <c r="G108" t="n">
-        <v>-22417.52229999999</v>
+        <v>-92.31769999999437</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4528,22 +4664,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>423</v>
+        <v>428.3</v>
       </c>
       <c r="C109" t="n">
-        <v>422.2</v>
+        <v>428.8</v>
       </c>
       <c r="D109" t="n">
-        <v>423</v>
+        <v>428.8</v>
       </c>
       <c r="E109" t="n">
-        <v>422.2</v>
+        <v>428.3</v>
       </c>
       <c r="F109" t="n">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="G109" t="n">
-        <v>-22672.52229999999</v>
+        <v>57.68230000000563</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4564,22 +4700,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>422.5</v>
+        <v>428.8</v>
       </c>
       <c r="C110" t="n">
-        <v>422</v>
+        <v>428.8</v>
       </c>
       <c r="D110" t="n">
-        <v>422.5</v>
+        <v>428.8</v>
       </c>
       <c r="E110" t="n">
-        <v>422</v>
+        <v>428.8</v>
       </c>
       <c r="F110" t="n">
-        <v>2498.1641</v>
+        <v>2263.2142</v>
       </c>
       <c r="G110" t="n">
-        <v>-25170.68639999999</v>
+        <v>57.68230000000563</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4600,22 +4736,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C111" t="n">
-        <v>422.5</v>
+        <v>430</v>
       </c>
       <c r="D111" t="n">
-        <v>423</v>
+        <v>430.1</v>
       </c>
       <c r="E111" t="n">
-        <v>422.5</v>
+        <v>430</v>
       </c>
       <c r="F111" t="n">
-        <v>1054.5157</v>
+        <v>2728.028</v>
       </c>
       <c r="G111" t="n">
-        <v>-24116.17069999999</v>
+        <v>2785.710300000005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4636,22 +4772,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>422.4</v>
+        <v>430.1</v>
       </c>
       <c r="C112" t="n">
-        <v>422.3</v>
+        <v>430.1</v>
       </c>
       <c r="D112" t="n">
-        <v>422.4</v>
+        <v>430.1</v>
       </c>
       <c r="E112" t="n">
-        <v>422.3</v>
+        <v>430.1</v>
       </c>
       <c r="F112" t="n">
-        <v>1380</v>
+        <v>70</v>
       </c>
       <c r="G112" t="n">
-        <v>-25496.17069999999</v>
+        <v>2855.710300000005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4672,22 +4808,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>422.3</v>
+        <v>430.1</v>
       </c>
       <c r="C113" t="n">
-        <v>421.1</v>
+        <v>430.1</v>
       </c>
       <c r="D113" t="n">
-        <v>422.3</v>
+        <v>430.1</v>
       </c>
       <c r="E113" t="n">
-        <v>421.1</v>
+        <v>430.1</v>
       </c>
       <c r="F113" t="n">
-        <v>10000.8423</v>
+        <v>225.2491</v>
       </c>
       <c r="G113" t="n">
-        <v>-35497.01299999999</v>
+        <v>2855.710300000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4708,22 +4844,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>421.1</v>
+        <v>430.3</v>
       </c>
       <c r="C114" t="n">
-        <v>421.1</v>
+        <v>430.1</v>
       </c>
       <c r="D114" t="n">
-        <v>421.1</v>
+        <v>430.3</v>
       </c>
       <c r="E114" t="n">
-        <v>421.1</v>
+        <v>430.1</v>
       </c>
       <c r="F114" t="n">
-        <v>1210</v>
+        <v>4204.8215</v>
       </c>
       <c r="G114" t="n">
-        <v>-35497.01299999999</v>
+        <v>2855.710300000005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4744,28 +4880,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C115" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D115" t="n">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E115" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F115" t="n">
-        <v>115.3879</v>
+        <v>229.1074</v>
       </c>
       <c r="G115" t="n">
-        <v>-35612.40089999999</v>
+        <v>2626.602900000005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4780,22 +4916,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>421</v>
+        <v>429.5</v>
       </c>
       <c r="C116" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D116" t="n">
-        <v>421</v>
+        <v>429.5</v>
       </c>
       <c r="E116" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F116" t="n">
-        <v>1400</v>
+        <v>20000</v>
       </c>
       <c r="G116" t="n">
-        <v>-34212.40089999999</v>
+        <v>-17373.39709999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4816,28 +4952,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>420</v>
+        <v>428.5</v>
       </c>
       <c r="C117" t="n">
-        <v>420</v>
+        <v>428.5</v>
       </c>
       <c r="D117" t="n">
-        <v>420</v>
+        <v>428.5</v>
       </c>
       <c r="E117" t="n">
-        <v>420</v>
+        <v>428.5</v>
       </c>
       <c r="F117" t="n">
-        <v>5815.0119</v>
+        <v>1228.2566</v>
       </c>
       <c r="G117" t="n">
-        <v>-40027.41279999999</v>
+        <v>-16145.14049999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4847,6 +4983,1050 @@
       </c>
       <c r="N117" t="inlineStr"/>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>540</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-16145.14049999999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>430.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>430.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>430.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>430.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>290.5988</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-15854.54169999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>427</v>
+      </c>
+      <c r="C120" t="n">
+        <v>426</v>
+      </c>
+      <c r="D120" t="n">
+        <v>427</v>
+      </c>
+      <c r="E120" t="n">
+        <v>426</v>
+      </c>
+      <c r="F120" t="n">
+        <v>315</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-16169.54169999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>426</v>
+      </c>
+      <c r="C121" t="n">
+        <v>426</v>
+      </c>
+      <c r="D121" t="n">
+        <v>426</v>
+      </c>
+      <c r="E121" t="n">
+        <v>426</v>
+      </c>
+      <c r="F121" t="n">
+        <v>290.5988</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-16169.54169999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>426</v>
+      </c>
+      <c r="C122" t="n">
+        <v>426</v>
+      </c>
+      <c r="D122" t="n">
+        <v>426</v>
+      </c>
+      <c r="E122" t="n">
+        <v>426</v>
+      </c>
+      <c r="F122" t="n">
+        <v>183.8135</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-16169.54169999999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>425</v>
+      </c>
+      <c r="C123" t="n">
+        <v>425</v>
+      </c>
+      <c r="D123" t="n">
+        <v>425</v>
+      </c>
+      <c r="E123" t="n">
+        <v>425</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1273.4079</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-17442.94959999999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>424</v>
+      </c>
+      <c r="C124" t="n">
+        <v>425</v>
+      </c>
+      <c r="D124" t="n">
+        <v>425</v>
+      </c>
+      <c r="E124" t="n">
+        <v>424</v>
+      </c>
+      <c r="F124" t="n">
+        <v>209.2228</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-17442.94959999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>425</v>
+      </c>
+      <c r="C125" t="n">
+        <v>423</v>
+      </c>
+      <c r="D125" t="n">
+        <v>425</v>
+      </c>
+      <c r="E125" t="n">
+        <v>423</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1113.4939</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-18556.44349999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>142.0274</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-18698.47089999999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>422</v>
+      </c>
+      <c r="C127" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>422</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2977.189</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-21675.65989999999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>422</v>
+      </c>
+      <c r="C128" t="n">
+        <v>422</v>
+      </c>
+      <c r="D128" t="n">
+        <v>422</v>
+      </c>
+      <c r="E128" t="n">
+        <v>422</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-23075.65989999999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>422</v>
+      </c>
+      <c r="C129" t="n">
+        <v>422</v>
+      </c>
+      <c r="D129" t="n">
+        <v>422</v>
+      </c>
+      <c r="E129" t="n">
+        <v>422</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1878.26</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-23075.65989999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>422</v>
+      </c>
+      <c r="C130" t="n">
+        <v>423</v>
+      </c>
+      <c r="D130" t="n">
+        <v>423</v>
+      </c>
+      <c r="E130" t="n">
+        <v>422</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4770.5545</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-18305.10539999999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>422</v>
+      </c>
+      <c r="C131" t="n">
+        <v>421.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>422</v>
+      </c>
+      <c r="E131" t="n">
+        <v>421.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1006.94</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-19312.04539999999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>423</v>
+      </c>
+      <c r="C132" t="n">
+        <v>423</v>
+      </c>
+      <c r="D132" t="n">
+        <v>423</v>
+      </c>
+      <c r="E132" t="n">
+        <v>423</v>
+      </c>
+      <c r="F132" t="n">
+        <v>108.0001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-19204.04529999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>423</v>
+      </c>
+      <c r="C133" t="n">
+        <v>422.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>423</v>
+      </c>
+      <c r="E133" t="n">
+        <v>422.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1725</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-20929.04529999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>424</v>
+      </c>
+      <c r="C134" t="n">
+        <v>426.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>429.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>424</v>
+      </c>
+      <c r="F134" t="n">
+        <v>350</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-20579.04529999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>426.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>426.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>426.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>425.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-20422.34529999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>426.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>426.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>426.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>426.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>895.7047</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-19526.64059999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>426.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>426.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>426.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>426.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2890.8817</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-22417.52229999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>423</v>
+      </c>
+      <c r="C138" t="n">
+        <v>422.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>423</v>
+      </c>
+      <c r="E138" t="n">
+        <v>422.2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>255</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-22672.52229999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>422</v>
+      </c>
+      <c r="D139" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>422</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2498.1641</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-25170.68639999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>423</v>
+      </c>
+      <c r="C140" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>423</v>
+      </c>
+      <c r="E140" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1054.5157</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-24116.17069999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>422.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>422.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-25496.17069999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>422.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>422.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10000.8423</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-35497.01299999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-35497.01299999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>421</v>
+      </c>
+      <c r="C144" t="n">
+        <v>420</v>
+      </c>
+      <c r="D144" t="n">
+        <v>421</v>
+      </c>
+      <c r="E144" t="n">
+        <v>420</v>
+      </c>
+      <c r="F144" t="n">
+        <v>115.3879</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-35612.40089999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>421</v>
+      </c>
+      <c r="C145" t="n">
+        <v>421</v>
+      </c>
+      <c r="D145" t="n">
+        <v>421</v>
+      </c>
+      <c r="E145" t="n">
+        <v>421</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-34212.40089999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>420</v>
+      </c>
+      <c r="C146" t="n">
+        <v>420</v>
+      </c>
+      <c r="D146" t="n">
+        <v>420</v>
+      </c>
+      <c r="E146" t="n">
+        <v>420</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5815.0119</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-40027.41279999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,22 +748,19 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>394.9</v>
       </c>
       <c r="J11" t="n">
         <v>394.9</v>
       </c>
-      <c r="K11" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,26 +785,21 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>394.9</v>
       </c>
-      <c r="K12" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -864,26 +824,21 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>394.9</v>
       </c>
-      <c r="K13" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,26 +863,23 @@
         <v>-43498.8999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>394.9</v>
       </c>
       <c r="J14" t="n">
         <v>394.9</v>
       </c>
-      <c r="K14" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -952,26 +904,23 @@
         <v>-43814.31310000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J15" t="n">
-        <v>394</v>
-      </c>
-      <c r="K15" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,26 +945,23 @@
         <v>-43515.25320000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>393.5</v>
       </c>
       <c r="J16" t="n">
-        <v>393.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1040,26 +986,23 @@
         <v>-41515.25320000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J17" t="n">
-        <v>394</v>
-      </c>
-      <c r="K17" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1084,26 +1027,23 @@
         <v>-40662.8152</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J18" t="n">
-        <v>396</v>
-      </c>
-      <c r="K18" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1128,26 +1068,23 @@
         <v>-38620.0152</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="J19" t="n">
-        <v>397.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,26 +1109,23 @@
         <v>-38620.0152</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="J20" t="n">
-        <v>398.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1216,26 +1150,21 @@
         <v>-34620.0152</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>398.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>394.9</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1262,22 +1191,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1304,22 +1230,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1346,22 +1269,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1388,22 +1308,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1428,24 +1345,23 @@
         <v>-40758.7099</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>399.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1472,22 +1388,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1514,22 +1427,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1556,22 +1466,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,22 +1505,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1640,22 +1544,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1682,22 +1583,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,22 +1622,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1766,22 +1661,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1808,22 +1700,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1850,22 +1739,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1892,22 +1778,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1934,22 +1817,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1976,22 +1856,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2018,22 +1895,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2060,22 +1934,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2102,22 +1973,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2144,22 +2012,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2186,22 +2051,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2228,22 +2090,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2270,22 +2129,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2312,22 +2168,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2354,22 +2207,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2396,22 +2246,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2438,22 +2285,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2480,22 +2324,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2522,22 +2363,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2564,22 +2402,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2606,22 +2441,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2648,22 +2480,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2690,22 +2519,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2732,22 +2558,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2774,22 +2597,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2816,22 +2636,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2858,22 +2675,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2900,22 +2714,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2942,22 +2753,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2984,22 +2792,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3026,22 +2831,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3068,22 +2870,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3108,24 +2907,21 @@
         <v>7277.629400000006</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3152,22 +2948,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3194,22 +2987,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3236,24 +3026,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1.077552544948088</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1.015282730514519</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3278,18 +3063,21 @@
         <v>14010.84690000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3314,18 +3102,21 @@
         <v>13957.80390000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3350,18 +3141,21 @@
         <v>-1451.479499999994</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3388,16 +3182,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3422,18 +3219,21 @@
         <v>-3638.394399999994</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3460,16 +3260,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3496,16 +3299,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3532,16 +3338,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3568,16 +3377,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3602,18 +3414,21 @@
         <v>-914.6092999999937</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3638,18 +3453,21 @@
         <v>508.5325000000064</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3674,18 +3492,21 @@
         <v>3490.766900000006</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3710,18 +3531,21 @@
         <v>2790.766900000006</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3746,18 +3570,21 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3784,16 +3611,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3820,16 +3650,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3856,16 +3689,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3892,16 +3728,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3928,16 +3767,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3964,16 +3806,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4000,16 +3845,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4036,16 +3884,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4072,16 +3923,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4108,16 +3962,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4144,16 +4001,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4180,16 +4040,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4216,16 +4079,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4252,16 +4118,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4288,16 +4157,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4324,16 +4196,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4360,16 +4235,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4396,16 +4274,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4432,16 +4313,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4466,18 +4350,23 @@
         <v>-3757.294399999994</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.06995568498354</v>
+      </c>
       <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>1.015282730514519</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4502,18 +4391,15 @@
         <v>-2045.746799999994</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4538,18 +4424,15 @@
         <v>1797.682300000006</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4574,18 +4457,15 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4612,16 +4492,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4648,16 +4525,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4684,16 +4558,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4720,16 +4591,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4756,16 +4624,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4792,16 +4657,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4828,16 +4690,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4862,18 +4721,15 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4898,18 +4754,15 @@
         <v>2626.602900000005</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4934,18 +4787,15 @@
         <v>-17373.39709999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4970,18 +4820,15 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5006,18 +4853,15 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5042,18 +4886,15 @@
         <v>-15854.54169999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5078,18 +4919,15 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5114,18 +4952,15 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5150,18 +4985,15 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5188,16 +5020,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5224,16 +5053,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5260,16 +5086,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5296,16 +5119,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5332,16 +5152,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5368,16 +5185,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5404,16 +5218,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5440,16 +5251,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5476,16 +5284,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5512,16 +5317,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5548,16 +5350,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5584,16 +5383,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5620,16 +5416,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5656,16 +5449,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5692,16 +5482,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5728,16 +5515,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5764,16 +5548,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5800,16 +5581,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5836,16 +5614,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5872,16 +5647,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5908,16 +5680,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5944,16 +5713,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5980,16 +5746,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6016,18 +5779,15 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,10 +715,14 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>394.9</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,7 +752,7 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>394.9</v>
@@ -756,7 +760,11 @@
       <c r="J11" t="n">
         <v>394.9</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,9 +793,11 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>394.9</v>
+      </c>
       <c r="J12" t="n">
         <v>394.9</v>
       </c>
@@ -824,17 +834,15 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>394.9</v>
+      </c>
       <c r="J13" t="n">
         <v>394.9</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,7 +871,7 @@
         <v>-43498.8999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>394.9</v>
@@ -904,7 +912,7 @@
         <v>-43814.31310000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>394</v>
@@ -945,7 +953,7 @@
         <v>-43515.25320000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>393.5</v>
@@ -986,7 +994,7 @@
         <v>-41515.25320000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>394</v>
@@ -1027,7 +1035,7 @@
         <v>-40662.8152</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>396</v>
@@ -1068,7 +1076,7 @@
         <v>-38620.0152</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>397.8</v>
@@ -1109,7 +1117,7 @@
         <v>-38620.0152</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>398.3</v>
@@ -1150,9 +1158,11 @@
         <v>-34620.0152</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>398.3</v>
+      </c>
       <c r="J21" t="n">
         <v>394.9</v>
       </c>
@@ -1189,9 +1199,11 @@
         <v>-32620.0152</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>399.4</v>
+      </c>
       <c r="J22" t="n">
         <v>394.9</v>
       </c>
@@ -1228,9 +1240,11 @@
         <v>-38144.7099</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>399.6</v>
+      </c>
       <c r="J23" t="n">
         <v>394.9</v>
       </c>
@@ -1267,9 +1281,11 @@
         <v>-41329.7099</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>399.3</v>
+      </c>
       <c r="J24" t="n">
         <v>394.9</v>
       </c>
@@ -1345,11 +1361,9 @@
         <v>-40758.7099</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>399.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>394.9</v>
       </c>
@@ -2907,7 +2921,7 @@
         <v>7277.629400000006</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
@@ -3063,7 +3077,7 @@
         <v>14010.84690000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3102,7 +3116,7 @@
         <v>13957.80390000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
@@ -3141,7 +3155,7 @@
         <v>-1451.479499999994</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -3219,7 +3233,7 @@
         <v>-3638.394399999994</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
@@ -3375,7 +3389,7 @@
         <v>-914.6092999999937</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3383,13 +3397,15 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>1.063878197011902</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.015282730514519</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3414,17 +3430,11 @@
         <v>-914.6092999999937</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3453,17 +3463,11 @@
         <v>508.5325000000064</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3492,17 +3496,11 @@
         <v>3490.766900000006</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3531,17 +3529,11 @@
         <v>2790.766900000006</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3570,17 +3562,11 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3609,17 +3595,11 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3648,17 +3628,11 @@
         <v>-1971.029499999994</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3687,17 +3661,11 @@
         <v>-4275.823099999994</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3726,17 +3694,11 @@
         <v>-5597.429199999994</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3768,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3807,14 +3763,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3846,14 +3796,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3885,14 +3829,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3924,14 +3862,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3963,14 +3895,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3928,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4038,17 +3958,11 @@
         <v>-5731.546799999995</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4080,14 +3994,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4116,17 +4024,11 @@
         <v>-4496.546799999995</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4155,17 +4057,11 @@
         <v>-4496.546799999995</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4194,17 +4090,11 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4233,17 +4123,11 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4272,17 +4156,11 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4314,14 +4192,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4350,23 +4222,15 @@
         <v>-3757.294399999994</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>1.06995568498354</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.015282730514519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4391,7 +4255,7 @@
         <v>-2045.746799999994</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4424,7 +4288,7 @@
         <v>1797.682300000006</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4457,7 +4321,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4490,7 +4354,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4523,7 +4387,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4556,7 +4420,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4589,7 +4453,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4622,7 +4486,7 @@
         <v>2785.710300000005</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4655,7 +4519,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4688,7 +4552,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4721,7 +4585,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4754,7 +4618,7 @@
         <v>2626.602900000005</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4787,7 +4651,7 @@
         <v>-17373.39709999999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4820,7 +4684,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4853,7 +4717,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4886,7 +4750,7 @@
         <v>-15854.54169999999</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4919,7 +4783,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4952,7 +4816,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4985,7 +4849,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5018,7 +4882,7 @@
         <v>-17442.94959999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5051,7 +4915,7 @@
         <v>-17442.94959999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5084,7 +4948,7 @@
         <v>-18556.44349999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5117,7 +4981,7 @@
         <v>-18698.47089999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5150,7 +5014,7 @@
         <v>-21675.65989999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5183,7 +5047,7 @@
         <v>-23075.65989999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5216,7 +5080,7 @@
         <v>-23075.65989999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5249,7 +5113,7 @@
         <v>-18305.10539999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5282,7 +5146,7 @@
         <v>-19312.04539999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5315,7 +5179,7 @@
         <v>-19204.04529999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5348,7 +5212,7 @@
         <v>-20929.04529999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5381,7 +5245,7 @@
         <v>-20579.04529999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5414,7 +5278,7 @@
         <v>-20422.34529999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5447,7 +5311,7 @@
         <v>-19526.64059999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5480,7 +5344,7 @@
         <v>-22417.52229999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5513,7 +5377,7 @@
         <v>-22672.52229999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5546,7 +5410,7 @@
         <v>-25170.68639999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5579,7 +5443,7 @@
         <v>-24116.17069999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5612,7 +5476,7 @@
         <v>-25496.17069999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5645,7 +5509,7 @@
         <v>-35497.01299999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5678,7 +5542,7 @@
         <v>-35497.01299999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5711,7 +5575,7 @@
         <v>-35612.40089999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5744,7 +5608,7 @@
         <v>-34212.40089999999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5788,6 +5652,6 @@
       <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,14 +715,10 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>394.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -760,11 +756,7 @@
       <c r="J11" t="n">
         <v>394.9</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,7 +834,11 @@
       <c r="J13" t="n">
         <v>394.9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -1199,11 +1195,9 @@
         <v>-32620.0152</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>399.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>394.9</v>
       </c>
@@ -1240,11 +1234,9 @@
         <v>-38144.7099</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>399.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>394.9</v>
       </c>
@@ -1281,11 +1273,9 @@
         <v>-41329.7099</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>399.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>394.9</v>
       </c>
@@ -1322,9 +1312,11 @@
         <v>-40758.7099</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>398.3</v>
+      </c>
       <c r="J25" t="n">
         <v>394.9</v>
       </c>
@@ -1478,9 +1470,11 @@
         <v>-39382.5706</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>398.3</v>
+      </c>
       <c r="J29" t="n">
         <v>394.9</v>
       </c>
@@ -1517,9 +1511,11 @@
         <v>-41210.8287</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>398.9</v>
+      </c>
       <c r="J30" t="n">
         <v>394.9</v>
       </c>
@@ -1556,9 +1552,11 @@
         <v>-41208.3287</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>396.5</v>
+      </c>
       <c r="J31" t="n">
         <v>394.9</v>
       </c>
@@ -1595,9 +1593,11 @@
         <v>-40112.6291</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>400</v>
+      </c>
       <c r="J32" t="n">
         <v>394.9</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
@@ -2539,13 +2539,15 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.083123575588757</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.015282730514519</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2570,17 +2572,11 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2612,14 +2608,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2641,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2674,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2729,14 +2707,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2768,14 +2740,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2807,14 +2773,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2846,14 +2806,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2885,14 +2839,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2921,17 +2869,11 @@
         <v>7277.629400000006</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2963,14 +2905,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3002,14 +2938,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2971,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +3004,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +3037,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +3070,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3197,14 +3103,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3236,14 +3136,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +3169,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +3202,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3353,14 +3235,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3389,23 +3265,15 @@
         <v>-914.6092999999937</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.063878197011902</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.015282730514519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3430,7 +3298,7 @@
         <v>-914.6092999999937</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3463,7 +3331,7 @@
         <v>508.5325000000064</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3727,7 +3595,7 @@
         <v>-5599.268399999994</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3760,7 +3628,7 @@
         <v>-6199.268399999994</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3793,7 +3661,7 @@
         <v>-5249.868399999995</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3958,7 +3826,7 @@
         <v>-5731.546799999995</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4024,7 +3892,7 @@
         <v>-4496.546799999995</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4057,7 +3925,7 @@
         <v>-4496.546799999995</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4090,7 +3958,7 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4123,7 +3991,7 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4156,7 +4024,7 @@
         <v>-1298.378399999995</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4222,7 +4090,7 @@
         <v>-3757.294399999994</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4288,7 +4156,7 @@
         <v>1797.682300000006</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4321,7 +4189,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4354,7 +4222,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4387,7 +4255,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4420,7 +4288,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4453,7 +4321,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4486,7 +4354,7 @@
         <v>2785.710300000005</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4519,7 +4387,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4552,7 +4420,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4585,7 +4453,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4618,7 +4486,7 @@
         <v>2626.602900000005</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4651,7 +4519,7 @@
         <v>-17373.39709999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4684,7 +4552,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4717,7 +4585,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4750,7 +4618,7 @@
         <v>-15854.54169999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4783,7 +4651,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4816,7 +4684,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4849,7 +4717,7 @@
         <v>-16169.54169999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4882,7 +4750,7 @@
         <v>-17442.94959999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4915,7 +4783,7 @@
         <v>-17442.94959999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4948,7 +4816,7 @@
         <v>-18556.44349999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4981,7 +4849,7 @@
         <v>-18698.47089999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5014,7 +4882,7 @@
         <v>-21675.65989999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5047,7 +4915,7 @@
         <v>-23075.65989999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5080,7 +4948,7 @@
         <v>-23075.65989999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5113,7 +4981,7 @@
         <v>-18305.10539999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5146,7 +5014,7 @@
         <v>-19312.04539999999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5179,7 +5047,7 @@
         <v>-19204.04529999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5212,7 +5080,7 @@
         <v>-20929.04529999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5245,7 +5113,7 @@
         <v>-20579.04529999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5278,7 +5146,7 @@
         <v>-20422.34529999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5311,7 +5179,7 @@
         <v>-19526.64059999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5344,7 +5212,7 @@
         <v>-22417.52229999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5377,7 +5245,7 @@
         <v>-22672.52229999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5410,7 +5278,7 @@
         <v>-25170.68639999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5443,7 +5311,7 @@
         <v>-24116.17069999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5476,7 +5344,7 @@
         <v>-25496.17069999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5509,7 +5377,7 @@
         <v>-35497.01299999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5542,7 +5410,7 @@
         <v>-35497.01299999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5575,7 +5443,7 @@
         <v>-35612.40089999999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5608,7 +5476,7 @@
         <v>-34212.40089999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5652,6 +5520,6 @@
       <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -748,14 +748,10 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>394.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>-39905.34830000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,11 +822,7 @@
       <c r="J13" t="n">
         <v>394.9</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -1195,9 +1179,11 @@
         <v>-32620.0152</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>399.4</v>
+      </c>
       <c r="J22" t="n">
         <v>394.9</v>
       </c>
@@ -1234,9 +1220,11 @@
         <v>-38144.7099</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>399.6</v>
+      </c>
       <c r="J23" t="n">
         <v>394.9</v>
       </c>
@@ -1312,11 +1300,9 @@
         <v>-40758.7099</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>398.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>394.9</v>
       </c>
@@ -1470,11 +1456,9 @@
         <v>-39382.5706</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>398.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>394.9</v>
       </c>
@@ -1511,11 +1495,9 @@
         <v>-41210.8287</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>398.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>394.9</v>
       </c>
@@ -1552,11 +1534,9 @@
         <v>-41208.3287</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>396.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>394.9</v>
       </c>
@@ -1593,11 +1573,9 @@
         <v>-40112.6291</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>394.9</v>
       </c>
@@ -2531,7 +2509,7 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
@@ -2539,15 +2517,13 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.083123575588757</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.015282730514519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2572,11 +2548,17 @@
         <v>-904.5578999999934</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2608,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2641,8 +2629,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2671,15 +2665,23 @@
         <v>10366.32910000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>1.093759179539124</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.015282730514519</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2704,7 +2706,7 @@
         <v>8829.884900000006</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2737,7 +2739,7 @@
         <v>8829.884900000006</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2968,7 +2970,7 @@
         <v>14012.68610000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3001,7 +3003,7 @@
         <v>14010.84690000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3034,7 +3036,7 @@
         <v>13957.80390000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3397,7 +3399,7 @@
         <v>2790.766900000006</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3430,7 +3432,7 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3463,7 +3465,7 @@
         <v>-1976.029499999994</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3496,7 +3498,7 @@
         <v>-1971.029499999994</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3562,7 +3564,7 @@
         <v>-5597.429199999994</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3595,7 +3597,7 @@
         <v>-5599.268399999994</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3628,7 +3630,7 @@
         <v>-6199.268399999994</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3661,7 +3663,7 @@
         <v>-5249.868399999995</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4222,7 +4224,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4255,7 +4257,7 @@
         <v>-92.31769999999437</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4288,7 +4290,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4321,7 +4323,7 @@
         <v>57.68230000000563</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4354,7 +4356,7 @@
         <v>2785.710300000005</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4387,7 +4389,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4420,7 +4422,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4453,7 +4455,7 @@
         <v>2855.710300000005</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4486,7 +4488,7 @@
         <v>2626.602900000005</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4519,7 +4521,7 @@
         <v>-17373.39709999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4552,7 +4554,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4585,7 +4587,7 @@
         <v>-16145.14049999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4618,7 +4620,7 @@
         <v>-15854.54169999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>

--- a/BackTest/2020-01-14 BackTest WTC.xlsx
+++ b/BackTest/2020-01-14 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-34721.6778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>910</v>
       </c>
       <c r="G3" t="n">
-        <v>-35631.6778</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6.6054</v>
       </c>
       <c r="G4" t="n">
-        <v>-35638.28320000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-35638.28320000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>85.42870000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-35638.28320000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4548.7651</v>
       </c>
       <c r="G7" t="n">
-        <v>-40187.0483</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>278.7</v>
       </c>
       <c r="G8" t="n">
-        <v>-39908.34830000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-39905.34830000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>-39905.34830000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>992</v>
       </c>
       <c r="G11" t="n">
-        <v>-39905.34830000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>-39905.34830000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,22 +773,15 @@
         <v>966.2155</v>
       </c>
       <c r="G13" t="n">
-        <v>-39905.34830000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -848,26 +803,15 @@
         <v>3593.5516</v>
       </c>
       <c r="G14" t="n">
-        <v>-43498.8999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -889,26 +833,19 @@
         <v>315.4132</v>
       </c>
       <c r="G15" t="n">
-        <v>-43814.31310000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="I15" t="n">
         <v>394</v>
       </c>
-      <c r="J15" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -930,26 +867,23 @@
         <v>299.0599</v>
       </c>
       <c r="G16" t="n">
-        <v>-43515.25320000001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>393.5</v>
       </c>
       <c r="I16" t="n">
-        <v>393.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>394</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -971,26 +905,23 @@
         <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>-41515.25320000001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="I17" t="n">
         <v>394</v>
       </c>
-      <c r="J17" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1012,26 +943,23 @@
         <v>852.438</v>
       </c>
       <c r="G18" t="n">
-        <v>-40662.8152</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>396</v>
       </c>
       <c r="I18" t="n">
-        <v>396</v>
-      </c>
-      <c r="J18" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>394</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1053,26 +981,23 @@
         <v>2042.8</v>
       </c>
       <c r="G19" t="n">
-        <v>-38620.0152</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>397.8</v>
       </c>
       <c r="I19" t="n">
-        <v>397.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>394</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1094,26 +1019,23 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>-38620.0152</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>398.3</v>
       </c>
       <c r="I20" t="n">
-        <v>398.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>394</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1135,26 +1057,23 @@
         <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>-34620.0152</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>398.3</v>
       </c>
       <c r="I21" t="n">
-        <v>398.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>394</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,26 +1095,21 @@
         <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>-32620.0152</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>399.4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>394</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1217,26 +1131,21 @@
         <v>5524.6947</v>
       </c>
       <c r="G23" t="n">
-        <v>-38144.7099</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>399.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>394</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1258,24 +1167,21 @@
         <v>3185</v>
       </c>
       <c r="G24" t="n">
-        <v>-41329.7099</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>394</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1297,24 +1203,21 @@
         <v>571</v>
       </c>
       <c r="G25" t="n">
-        <v>-40758.7099</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>394</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1336,24 +1239,21 @@
         <v>1400</v>
       </c>
       <c r="G26" t="n">
-        <v>-40758.7099</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>394</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1375,24 +1275,21 @@
         <v>310</v>
       </c>
       <c r="G27" t="n">
-        <v>-40758.7099</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>394</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,24 +1311,21 @@
         <v>264.5959</v>
       </c>
       <c r="G28" t="n">
-        <v>-41023.3058</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>394</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1453,24 +1347,21 @@
         <v>1640.7352</v>
       </c>
       <c r="G29" t="n">
-        <v>-39382.5706</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>394</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,24 +1383,21 @@
         <v>1828.2581</v>
       </c>
       <c r="G30" t="n">
-        <v>-41210.8287</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>394</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1531,24 +1419,21 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-41208.3287</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>394</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,24 +1455,21 @@
         <v>1095.6996</v>
       </c>
       <c r="G32" t="n">
-        <v>-40112.6291</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>394</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1609,24 +1491,21 @@
         <v>566.6373</v>
       </c>
       <c r="G33" t="n">
-        <v>-39545.9918</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>394</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,24 +1527,21 @@
         <v>1395.8234</v>
       </c>
       <c r="G34" t="n">
-        <v>-38150.1684</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>394</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1687,24 +1563,21 @@
         <v>411.0868</v>
       </c>
       <c r="G35" t="n">
-        <v>-38561.25519999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>394</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1726,24 +1599,21 @@
         <v>4028.9885</v>
       </c>
       <c r="G36" t="n">
-        <v>-34532.26669999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>394</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1765,24 +1635,21 @@
         <v>5492.2451</v>
       </c>
       <c r="G37" t="n">
-        <v>-29040.02159999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>394</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1804,24 +1671,21 @@
         <v>283.7</v>
       </c>
       <c r="G38" t="n">
-        <v>-29323.72159999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>394</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1843,24 +1707,21 @@
         <v>6232.1666</v>
       </c>
       <c r="G39" t="n">
-        <v>-35555.88819999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>394</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,24 +1743,21 @@
         <v>11894.0999</v>
       </c>
       <c r="G40" t="n">
-        <v>-23661.78829999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>394</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1921,24 +1779,21 @@
         <v>2693</v>
       </c>
       <c r="G41" t="n">
-        <v>-26354.78829999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>394</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1960,24 +1815,21 @@
         <v>47.2489</v>
       </c>
       <c r="G42" t="n">
-        <v>-26307.53939999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>394</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1999,24 +1851,21 @@
         <v>1350</v>
       </c>
       <c r="G43" t="n">
-        <v>-24957.53939999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>394</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2038,24 +1887,21 @@
         <v>1055.8091</v>
       </c>
       <c r="G44" t="n">
-        <v>-24957.53939999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>394</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2077,24 +1923,21 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>-23957.53939999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>394</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2116,24 +1959,21 @@
         <v>138.9</v>
       </c>
       <c r="G46" t="n">
-        <v>-24096.4394</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>394</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2155,24 +1995,21 @@
         <v>444.4171</v>
       </c>
       <c r="G47" t="n">
-        <v>-24096.4394</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>394</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2194,24 +2031,21 @@
         <v>196.2699</v>
       </c>
       <c r="G48" t="n">
-        <v>-24292.70929999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>394</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2233,24 +2067,21 @@
         <v>4111.8388</v>
       </c>
       <c r="G49" t="n">
-        <v>-24292.70929999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>394</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2272,24 +2103,21 @@
         <v>98.54000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-24292.70929999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>394</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2311,24 +2139,21 @@
         <v>1890.7229</v>
       </c>
       <c r="G51" t="n">
-        <v>-22401.98639999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>394</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2350,24 +2175,21 @@
         <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>-22406.98639999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>394</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2389,24 +2211,21 @@
         <v>295</v>
       </c>
       <c r="G53" t="n">
-        <v>-22111.98639999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>394</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2428,24 +2247,21 @@
         <v>295</v>
       </c>
       <c r="G54" t="n">
-        <v>-22111.98639999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>394</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2467,24 +2283,21 @@
         <v>15801.3839</v>
       </c>
       <c r="G55" t="n">
-        <v>-6310.602499999994</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>394</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2506,24 +2319,21 @@
         <v>5406.0446</v>
       </c>
       <c r="G56" t="n">
-        <v>-904.5578999999934</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>394</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2545,24 +2355,21 @@
         <v>866.401</v>
       </c>
       <c r="G57" t="n">
-        <v>-904.5578999999934</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>394</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2584,24 +2391,21 @@
         <v>14322.7613</v>
       </c>
       <c r="G58" t="n">
-        <v>13418.20340000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>394</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2623,24 +2427,21 @@
         <v>5062.5042</v>
       </c>
       <c r="G59" t="n">
-        <v>8355.699200000006</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>394</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2662,26 +2463,21 @@
         <v>2010.6299</v>
       </c>
       <c r="G60" t="n">
-        <v>10366.32910000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1.093759179539124</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.015282730514519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>394</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2703,18 +2499,21 @@
         <v>1536.4442</v>
       </c>
       <c r="G61" t="n">
-        <v>8829.884900000006</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>394</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2736,18 +2535,21 @@
         <v>446.8158</v>
       </c>
       <c r="G62" t="n">
-        <v>8829.884900000006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>394</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2769,18 +2571,21 @@
         <v>2448.6001</v>
       </c>
       <c r="G63" t="n">
-        <v>11278.48500000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>394</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2802,18 +2607,23 @@
         <v>150</v>
       </c>
       <c r="G64" t="n">
-        <v>11428.48500000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>394</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1.085862944162437</v>
+      </c>
       <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>1.015282730514519</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2835,18 +2645,15 @@
         <v>2624.9992</v>
       </c>
       <c r="G65" t="n">
-        <v>8803.485800000006</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2868,18 +2675,15 @@
         <v>1525.8564</v>
       </c>
       <c r="G66" t="n">
-        <v>7277.629400000006</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2901,18 +2705,15 @@
         <v>3223.3428</v>
       </c>
       <c r="G67" t="n">
-        <v>10500.97220000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2934,18 +2735,15 @@
         <v>4718.7895</v>
       </c>
       <c r="G68" t="n">
-        <v>15219.76170000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2967,18 +2765,15 @@
         <v>1207.0756</v>
       </c>
       <c r="G69" t="n">
-        <v>14012.68610000001</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3000,18 +2795,15 @@
         <v>1.8392</v>
       </c>
       <c r="G70" t="n">
-        <v>14010.84690000001</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3033,18 +2825,15 @@
         <v>53.043</v>
       </c>
       <c r="G71" t="n">
-        <v>13957.80390000001</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3066,18 +2855,15 @@
         <v>15409.2834</v>
       </c>
       <c r="G72" t="n">
-        <v>-1451.479499999994</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3099,18 +2885,15 @@
         <v>813.0851</v>
       </c>
       <c r="G73" t="n">
-        <v>-638.394399999994</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3132,18 +2915,15 @@
         <v>3000</v>
       </c>
       <c r="G74" t="n">
-        <v>-3638.394399999994</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3165,18 +2945,15 @@
         <v>1632.1548</v>
       </c>
       <c r="G75" t="n">
-        <v>-2006.239599999994</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3198,18 +2975,15 @@
         <v>1684.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>-321.2396999999937</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3231,18 +3005,15 @@
         <v>600</v>
       </c>
       <c r="G77" t="n">
-        <v>-921.2396999999937</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3264,18 +3035,15 @@
         <v>6.6304</v>
       </c>
       <c r="G78" t="n">
-        <v>-914.6092999999937</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3297,18 +3065,15 @@
         <v>1022.9729</v>
       </c>
       <c r="G79" t="n">
-        <v>-914.6092999999937</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3330,18 +3095,15 @@
         <v>1423.1418</v>
       </c>
       <c r="G80" t="n">
-        <v>508.5325000000064</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3363,18 +3125,15 @@
         <v>2982.2344</v>
       </c>
       <c r="G81" t="n">
-        <v>3490.766900000006</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3396,18 +3155,15 @@
         <v>700</v>
       </c>
       <c r="G82" t="n">
-        <v>2790.766900000006</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3429,18 +3185,15 @@
         <v>4766.7964</v>
       </c>
       <c r="G83" t="n">
-        <v>-1976.029499999994</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3462,18 +3215,15 @@
         <v>951.1649</v>
       </c>
       <c r="G84" t="n">
-        <v>-1976.029499999994</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3495,18 +3245,15 @@
         <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>-1971.029499999994</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3528,18 +3275,15 @@
         <v>2304.7936</v>
       </c>
       <c r="G86" t="n">
-        <v>-4275.823099999994</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3561,18 +3305,15 @@
         <v>1321.6061</v>
       </c>
       <c r="G87" t="n">
-        <v>-5597.429199999994</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3594,18 +3335,15 @@
         <v>1.8392</v>
       </c>
       <c r="G88" t="n">
-        <v>-5599.268399999994</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3627,18 +3365,15 @@
         <v>600</v>
       </c>
       <c r="G89" t="n">
-        <v>-6199.268399999994</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3660,18 +3395,15 @@
         <v>949.4</v>
       </c>
       <c r="G90" t="n">
-        <v>-5249.868399999995</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3693,18 +3425,15 @@
         <v>715.718</v>
       </c>
       <c r="G91" t="n">
-        <v>-5965.586399999995</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3726,18 +3455,15 @@
         <v>230.9171</v>
       </c>
       <c r="G92" t="n">
-        <v>-5734.669299999995</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3759,18 +3485,15 @@
         <v>103.6911</v>
       </c>
       <c r="G93" t="n">
-        <v>-5734.669299999995</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3792,18 +3515,15 @@
         <v>2353.0346</v>
       </c>
       <c r="G94" t="n">
-        <v>-5734.669299999995</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3825,18 +3545,15 @@
         <v>3.1225</v>
       </c>
       <c r="G95" t="n">
-        <v>-5731.546799999995</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,18 +3575,15 @@
         <v>1165</v>
       </c>
       <c r="G96" t="n">
-        <v>-4566.546799999995</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3891,18 +3605,15 @@
         <v>70</v>
       </c>
       <c r="G97" t="n">
-        <v>-4496.546799999995</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3924,18 +3635,15 @@
         <v>1230</v>
       </c>
       <c r="G98" t="n">
-        <v>-4496.546799999995</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3957,18 +3665,15 @@
         <v>3198.1684</v>
       </c>
       <c r="G99" t="n">
-        <v>-1298.378399999995</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3990,18 +3695,15 @@
         <v>2745.3154</v>
       </c>
       <c r="G100" t="n">
-        <v>-1298.378399999995</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4023,18 +3725,15 @@
         <v>605.5441</v>
       </c>
       <c r="G101" t="n">
-        <v>-1298.378399999995</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3755,15 @@
         <v>1458.916</v>
       </c>
       <c r="G102" t="n">
-        <v>-2757.294399999994</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4089,18 +3785,15 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-3757.294399999994</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4122,18 +3815,15 @@
         <v>1711.5476</v>
       </c>
       <c r="G104" t="n">
-        <v>-2045.746799999994</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4155,18 +3845,15 @@
         <v>3843.4291</v>
       </c>
       <c r="G105" t="n">
-        <v>1797.682300000006</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4188,18 +3875,15 @@
         <v>1890</v>
       </c>
       <c r="G106" t="n">
-        <v>-92.31769999999437</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4221,18 +3905,15 @@
         <v>1610.966</v>
       </c>
       <c r="G107" t="n">
-        <v>-92.31769999999437</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4254,18 +3935,15 @@
         <v>99.9611</v>
       </c>
       <c r="G108" t="n">
-        <v>-92.31769999999437</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4287,18 +3965,15 @@
         <v>150</v>
       </c>
       <c r="G109" t="n">
-        <v>57.68230000000563</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4320,18 +3995,15 @@
         <v>2263.2142</v>
       </c>
       <c r="G110" t="n">
-        <v>57.68230000000563</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4353,18 +4025,15 @@
         <v>2728.028</v>
       </c>
       <c r="G111" t="n">
-        <v>2785.710300000005</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4386,18 +4055,15 @@
         <v>70</v>
       </c>
       <c r="G112" t="n">
-        <v>2855.710300000005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4419,18 +4085,15 @@
         <v>225.2491</v>
       </c>
       <c r="G113" t="n">
-        <v>2855.710300000005</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4452,18 +4115,15 @@
         <v>4204.8215</v>
       </c>
       <c r="G114" t="n">
-        <v>2855.710300000005</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4485,18 +4145,15 @@
         <v>229.1074</v>
       </c>
       <c r="G115" t="n">
-        <v>2626.602900000005</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4518,18 +4175,15 @@
         <v>20000</v>
       </c>
       <c r="G116" t="n">
-        <v>-17373.39709999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4551,18 +4205,15 @@
         <v>1228.2566</v>
       </c>
       <c r="G117" t="n">
-        <v>-16145.14049999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4584,18 +4235,15 @@
         <v>540</v>
       </c>
       <c r="G118" t="n">
-        <v>-16145.14049999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4617,18 +4265,15 @@
         <v>290.5988</v>
       </c>
       <c r="G119" t="n">
-        <v>-15854.54169999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4650,18 +4295,15 @@
         <v>315</v>
       </c>
       <c r="G120" t="n">
-        <v>-16169.54169999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4683,18 +4325,15 @@
         <v>290.5988</v>
       </c>
       <c r="G121" t="n">
-        <v>-16169.54169999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4716,18 +4355,15 @@
         <v>183.8135</v>
       </c>
       <c r="G122" t="n">
-        <v>-16169.54169999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4749,18 +4385,15 @@
         <v>1273.4079</v>
       </c>
       <c r="G123" t="n">
-        <v>-17442.94959999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4782,18 +4415,15 @@
         <v>209.2228</v>
       </c>
       <c r="G124" t="n">
-        <v>-17442.94959999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4815,18 +4445,15 @@
         <v>1113.4939</v>
       </c>
       <c r="G125" t="n">
-        <v>-18556.44349999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4848,18 +4475,15 @@
         <v>142.0274</v>
       </c>
       <c r="G126" t="n">
-        <v>-18698.47089999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4881,18 +4505,15 @@
         <v>2977.189</v>
       </c>
       <c r="G127" t="n">
-        <v>-21675.65989999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4914,18 +4535,15 @@
         <v>1400</v>
       </c>
       <c r="G128" t="n">
-        <v>-23075.65989999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4947,18 +4565,15 @@
         <v>1878.26</v>
       </c>
       <c r="G129" t="n">
-        <v>-23075.65989999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4980,18 +4595,15 @@
         <v>4770.5545</v>
       </c>
       <c r="G130" t="n">
-        <v>-18305.10539999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5013,18 +4625,15 @@
         <v>1006.94</v>
       </c>
       <c r="G131" t="n">
-        <v>-19312.04539999999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5046,18 +4655,15 @@
         <v>108.0001</v>
       </c>
       <c r="G132" t="n">
-        <v>-19204.04529999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5079,18 +4685,15 @@
         <v>1725</v>
       </c>
       <c r="G133" t="n">
-        <v>-20929.04529999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5112,18 +4715,15 @@
         <v>350</v>
       </c>
       <c r="G134" t="n">
-        <v>-20579.04529999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5145,18 +4745,15 @@
         <v>156.7</v>
       </c>
       <c r="G135" t="n">
-        <v>-20422.34529999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5178,18 +4775,15 @@
         <v>895.7047</v>
       </c>
       <c r="G136" t="n">
-        <v>-19526.64059999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5211,18 +4805,15 @@
         <v>2890.8817</v>
       </c>
       <c r="G137" t="n">
-        <v>-22417.52229999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5244,18 +4835,15 @@
         <v>255</v>
       </c>
       <c r="G138" t="n">
-        <v>-22672.52229999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5277,18 +4865,15 @@
         <v>2498.1641</v>
       </c>
       <c r="G139" t="n">
-        <v>-25170.68639999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5310,18 +4895,15 @@
         <v>1054.5157</v>
       </c>
       <c r="G140" t="n">
-        <v>-24116.17069999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5343,18 +4925,15 @@
         <v>1380</v>
       </c>
       <c r="G141" t="n">
-        <v>-25496.17069999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5376,18 +4955,15 @@
         <v>10000.8423</v>
       </c>
       <c r="G142" t="n">
-        <v>-35497.01299999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5409,18 +4985,15 @@
         <v>1210</v>
       </c>
       <c r="G143" t="n">
-        <v>-35497.01299999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5442,18 +5015,15 @@
         <v>115.3879</v>
       </c>
       <c r="G144" t="n">
-        <v>-35612.40089999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5475,18 +5045,15 @@
         <v>1400</v>
       </c>
       <c r="G145" t="n">
-        <v>-34212.40089999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5508,18 +5075,15 @@
         <v>5815.0119</v>
       </c>
       <c r="G146" t="n">
-        <v>-40027.41279999999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
